--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1038228.086185346</v>
+        <v>1034071.595700291</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33936285.47690616</v>
+        <v>33936285.47690617</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6507879.333115956</v>
+        <v>6507879.333115955</v>
       </c>
     </row>
     <row r="9">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>326.1620212776402</v>
       </c>
       <c r="G11" t="n">
-        <v>4.690958019611384</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>266.4097384417204</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.69418351668037</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T11" t="n">
         <v>209.3908366544989</v>
@@ -1429,7 +1429,7 @@
         <v>256.4751836067882</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>43.57840542799911</v>
+        <v>43.5784054279991</v>
       </c>
       <c r="T12" t="n">
         <v>124.7012168429747</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.17444688829401</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>35.9832429722633</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H13" t="n">
         <v>130.781282966242</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>426.0834554096851</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>32.34482771698854</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>256.4751836067882</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>153.4020237005914</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H16" t="n">
-        <v>122.7272296112186</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>388.437927245445</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>48.28266554224585</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>256.4751836067882</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>148.4084492725243</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.7097330287659</v>
@@ -2064,10 +2064,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>103.5172048830235</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2083,22 +2083,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>389.7839638732244</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T20" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>184.1823525554942</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>138.5476589090199</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>144.2395271908628</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H22" t="n">
         <v>130.781282966242</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>275.6012973062951</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2323,7 +2323,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>123.5803693185502</v>
       </c>
       <c r="H23" t="n">
         <v>266.4097384417204</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>357.9610175994757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>162.9233150972277</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>76.85753405782518</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.066849283703</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>275.6012973062951</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2560,19 +2560,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>136.51414741053</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>118.3648767529846</v>
       </c>
       <c r="H26" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2721,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>164.1935506528658</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2769,16 +2769,16 @@
         <v>239.7097330287659</v>
       </c>
       <c r="U28" t="n">
-        <v>40.68587578724123</v>
+        <v>275.6012973062951</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>297.202921749433</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>215.1231745971646</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T29" t="n">
         <v>209.3908366544989</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>50.05400667438619</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H31" t="n">
         <v>130.781282966242</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>42.58897791556422</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>32.3448277169881</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>58.715444958704</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>34.10462114136377</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>133.4480002385883</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.7097330287659</v>
       </c>
       <c r="U34" t="n">
         <v>275.6012973062951</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>312.8942782230744</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>38.69418351668036</v>
       </c>
       <c r="T35" t="n">
-        <v>209.3908366544989</v>
+        <v>10.13845599479386</v>
       </c>
       <c r="U35" t="n">
         <v>256.4751836067882</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3432,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>158.9952808206009</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.7097330287659</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6012973062951</v>
+        <v>9.387667829583338</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>38.69418351668036</v>
       </c>
       <c r="T38" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>197.3618452320492</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>184.1823525554933</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>42.82559773383404</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T40" t="n">
         <v>239.7097330287659</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>5.399382103154118</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3745,19 +3745,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>38.69418351668036</v>
       </c>
       <c r="T41" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>184.1823525554942</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>162.714319688382</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>96.6356792380133</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,7 +3915,7 @@
         <v>163.066849283703</v>
       </c>
       <c r="H43" t="n">
-        <v>130.781282966242</v>
+        <v>129.7679389039284</v>
       </c>
       <c r="I43" t="n">
         <v>61.65479693373585</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.7097330287659</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>404.0811752865996</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>38.69418351668035</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T44" t="n">
         <v>209.3908366544989</v>
@@ -4039,10 +4039,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>5.484636354633878</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>122.7272296112195</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.7097330287659</v>
       </c>
       <c r="U46" t="n">
-        <v>153.9710623513667</v>
+        <v>275.6012973062951</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>750.4232886963658</v>
+        <v>1521.326362462886</v>
       </c>
       <c r="C11" t="n">
-        <v>750.4232886963658</v>
+        <v>1083.18388964631</v>
       </c>
       <c r="D11" t="n">
-        <v>750.4232886963658</v>
+        <v>647.2741048207542</v>
       </c>
       <c r="E11" t="n">
-        <v>750.4232886963658</v>
+        <v>647.2741048207542</v>
       </c>
       <c r="F11" t="n">
-        <v>322.5558591055736</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="G11" t="n">
         <v>317.8175176716227</v>
@@ -5038,37 +5038,37 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I11" t="n">
-        <v>122.2071970529794</v>
+        <v>122.2071970529798</v>
       </c>
       <c r="J11" t="n">
-        <v>284.8964781041979</v>
+        <v>284.8964781041983</v>
       </c>
       <c r="K11" t="n">
-        <v>528.7255375544864</v>
+        <v>528.7255375544869</v>
       </c>
       <c r="L11" t="n">
-        <v>831.2170466428696</v>
+        <v>831.2170466428701</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.797134377708</v>
+        <v>1167.797134377709</v>
       </c>
       <c r="N11" t="n">
-        <v>1509.823439815744</v>
+        <v>1509.823439815745</v>
       </c>
       <c r="O11" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P11" t="n">
-        <v>2108.432969611294</v>
+        <v>2108.432969611295</v>
       </c>
       <c r="Q11" t="n">
-        <v>2315.429975153287</v>
+        <v>2315.429975153288</v>
       </c>
       <c r="R11" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S11" t="n">
-        <v>2396.753554689516</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T11" t="n">
         <v>2185.247659078912</v>
@@ -5077,16 +5077,16 @@
         <v>1926.181817051853</v>
       </c>
       <c r="V11" t="n">
-        <v>1563.564866985679</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="W11" t="n">
-        <v>1158.709412396712</v>
+        <v>1521.326362462886</v>
       </c>
       <c r="X11" t="n">
-        <v>1158.709412396712</v>
+        <v>1521.326362462886</v>
       </c>
       <c r="Y11" t="n">
-        <v>750.4232886963658</v>
+        <v>1521.326362462886</v>
       </c>
     </row>
     <row r="12">
@@ -5111,25 +5111,25 @@
         <v>164.684848684769</v>
       </c>
       <c r="G12" t="n">
-        <v>80.3461818401917</v>
+        <v>80.34618184019172</v>
       </c>
       <c r="H12" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I12" t="n">
-        <v>48.71677177089499</v>
+        <v>84.02796795020362</v>
       </c>
       <c r="J12" t="n">
-        <v>127.7240328152226</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K12" t="n">
-        <v>293.3357920169558</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L12" t="n">
-        <v>516.0212400241753</v>
+        <v>569.2217964201103</v>
       </c>
       <c r="M12" t="n">
-        <v>775.8846544545777</v>
+        <v>829.0852108505127</v>
       </c>
       <c r="N12" t="n">
         <v>1042.62588021723</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.9658361508982</v>
+        <v>547.7577698443301</v>
       </c>
       <c r="C13" t="n">
-        <v>523.4041246341231</v>
+        <v>511.4110597713369</v>
       </c>
       <c r="D13" t="n">
-        <v>357.5261318356459</v>
+        <v>345.5330669728596</v>
       </c>
       <c r="E13" t="n">
-        <v>357.5261318356459</v>
+        <v>345.5330669728596</v>
       </c>
       <c r="F13" t="n">
-        <v>180.819077797402</v>
+        <v>345.5330669728596</v>
       </c>
       <c r="G13" t="n">
         <v>180.819077797402</v>
@@ -5208,43 +5208,43 @@
         <v>1116.78392367145</v>
       </c>
       <c r="M13" t="n">
-        <v>1546.809429446778</v>
+        <v>1251.565841404145</v>
       </c>
       <c r="N13" t="n">
-        <v>2120.645337585833</v>
+        <v>1383.142946385555</v>
       </c>
       <c r="O13" t="n">
-        <v>2242.178090407728</v>
+        <v>1726.478421573054</v>
       </c>
       <c r="P13" t="n">
-        <v>2346.170355878688</v>
+        <v>2177.977581014356</v>
       </c>
       <c r="Q13" t="n">
         <v>2418.169210152066</v>
       </c>
       <c r="R13" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S13" t="n">
-        <v>2291.885918716711</v>
+        <v>2291.885918716712</v>
       </c>
       <c r="T13" t="n">
-        <v>2049.754875253311</v>
+        <v>2049.754875253312</v>
       </c>
       <c r="U13" t="n">
-        <v>1771.369726459074</v>
+        <v>1771.369726459075</v>
       </c>
       <c r="V13" t="n">
-        <v>1484.414218329504</v>
+        <v>1484.414218329505</v>
       </c>
       <c r="W13" t="n">
-        <v>1212.387813915796</v>
+        <v>1212.387813915797</v>
       </c>
       <c r="X13" t="n">
-        <v>966.9960592492082</v>
+        <v>966.9960592492091</v>
       </c>
       <c r="Y13" t="n">
-        <v>739.5763885633164</v>
+        <v>739.5763885633173</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>479.1041004675467</v>
+        <v>951.0728445866285</v>
       </c>
       <c r="C14" t="n">
-        <v>479.1041004675467</v>
+        <v>951.0728445866285</v>
       </c>
       <c r="D14" t="n">
-        <v>479.1041004675467</v>
+        <v>515.1630597610731</v>
       </c>
       <c r="E14" t="n">
-        <v>48.71677177089498</v>
+        <v>81.38831491936827</v>
       </c>
       <c r="F14" t="n">
-        <v>48.71677177089498</v>
+        <v>81.38831491936827</v>
       </c>
       <c r="G14" t="n">
-        <v>48.71677177089498</v>
+        <v>81.38831491936827</v>
       </c>
       <c r="H14" t="n">
-        <v>48.71677177089498</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I14" t="n">
-        <v>122.207197052979</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J14" t="n">
-        <v>284.8964781041973</v>
+        <v>284.896478104198</v>
       </c>
       <c r="K14" t="n">
-        <v>528.725537554486</v>
+        <v>528.7255375544867</v>
       </c>
       <c r="L14" t="n">
-        <v>831.2170466428691</v>
+        <v>831.2170466428696</v>
       </c>
       <c r="M14" t="n">
         <v>1167.797134377708</v>
@@ -5293,37 +5293,37 @@
         <v>1509.823439815744</v>
       </c>
       <c r="O14" t="n">
-        <v>1832.78918131672</v>
+        <v>1832.789181316721</v>
       </c>
       <c r="P14" t="n">
-        <v>2108.432969611293</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q14" t="n">
-        <v>2315.429975153286</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R14" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S14" t="n">
-        <v>2396.753554689516</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T14" t="n">
-        <v>2396.753554689516</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="U14" t="n">
-        <v>2137.687712662457</v>
+        <v>2137.687712662458</v>
       </c>
       <c r="V14" t="n">
-        <v>2137.687712662457</v>
+        <v>1775.070762596285</v>
       </c>
       <c r="W14" t="n">
-        <v>1732.83225807349</v>
+        <v>1370.215308007318</v>
       </c>
       <c r="X14" t="n">
-        <v>1313.689794652801</v>
+        <v>951.0728445866285</v>
       </c>
       <c r="Y14" t="n">
-        <v>905.4036709524545</v>
+        <v>951.0728445866285</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>164.684848684769</v>
       </c>
       <c r="G15" t="n">
-        <v>80.3461818401917</v>
+        <v>80.34618184019172</v>
       </c>
       <c r="H15" t="n">
-        <v>48.71677177089498</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I15" t="n">
-        <v>48.71677177089498</v>
+        <v>84.02796795020362</v>
       </c>
       <c r="J15" t="n">
-        <v>127.7240328152225</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K15" t="n">
-        <v>293.3357920169558</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L15" t="n">
-        <v>516.0212400241753</v>
+        <v>569.2217964201103</v>
       </c>
       <c r="M15" t="n">
-        <v>775.8846544545777</v>
+        <v>829.0852108505127</v>
       </c>
       <c r="N15" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O15" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P15" t="n">
-        <v>1482.486430331076</v>
+        <v>1535.686986727012</v>
       </c>
       <c r="Q15" t="n">
-        <v>1613.403252446057</v>
+        <v>1666.603808841992</v>
       </c>
       <c r="R15" t="n">
         <v>1677.080359849152</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>691.7104396723671</v>
+        <v>883.5290583913552</v>
       </c>
       <c r="C16" t="n">
-        <v>519.148728155592</v>
+        <v>710.9673468745801</v>
       </c>
       <c r="D16" t="n">
-        <v>519.148728155592</v>
+        <v>545.0893540761028</v>
       </c>
       <c r="E16" t="n">
-        <v>349.3907244063293</v>
+        <v>390.1378149845964</v>
       </c>
       <c r="F16" t="n">
-        <v>172.6836703680855</v>
+        <v>213.4307609463526</v>
       </c>
       <c r="G16" t="n">
-        <v>172.6836703680855</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H16" t="n">
-        <v>48.71677177089498</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I16" t="n">
-        <v>48.71677177089498</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="J16" t="n">
         <v>109.5065980312421</v>
@@ -5442,46 +5442,46 @@
         <v>209.402956473731</v>
       </c>
       <c r="L16" t="n">
-        <v>605.0367505628291</v>
+        <v>755.4457839356249</v>
       </c>
       <c r="M16" t="n">
-        <v>1199.302535476437</v>
+        <v>1349.711568849232</v>
       </c>
       <c r="N16" t="n">
-        <v>1773.138443615491</v>
+        <v>1923.547476988287</v>
       </c>
       <c r="O16" t="n">
-        <v>1894.671196437386</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P16" t="n">
         <v>2346.170355878688</v>
       </c>
       <c r="Q16" t="n">
-        <v>2418.169210152065</v>
+        <v>2418.169210152066</v>
       </c>
       <c r="R16" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S16" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T16" t="n">
-        <v>2193.707545081349</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U16" t="n">
         <v>1915.322396287112</v>
       </c>
       <c r="V16" t="n">
-        <v>1628.366888157542</v>
+        <v>1628.366888157543</v>
       </c>
       <c r="W16" t="n">
-        <v>1356.340483743834</v>
+        <v>1356.340483743835</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.948729077246</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y16" t="n">
-        <v>883.5290583913543</v>
+        <v>883.5290583913552</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>535.6296138220634</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C17" t="n">
-        <v>97.48714100548676</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D17" t="n">
-        <v>48.71677177089499</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E17" t="n">
-        <v>48.71677177089499</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F17" t="n">
         <v>48.71677177089499</v>
@@ -5512,55 +5512,55 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I17" t="n">
-        <v>122.2071970529792</v>
+        <v>122.20719705298</v>
       </c>
       <c r="J17" t="n">
-        <v>284.896478104198</v>
+        <v>284.8964781041985</v>
       </c>
       <c r="K17" t="n">
-        <v>528.7255375544867</v>
+        <v>528.7255375544871</v>
       </c>
       <c r="L17" t="n">
-        <v>831.2170466428696</v>
+        <v>831.2170466428703</v>
       </c>
       <c r="M17" t="n">
-        <v>1167.797134377708</v>
+        <v>1167.797134377709</v>
       </c>
       <c r="N17" t="n">
-        <v>1509.823439815744</v>
+        <v>1509.823439815745</v>
       </c>
       <c r="O17" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P17" t="n">
-        <v>2108.432969611294</v>
+        <v>2108.432969611295</v>
       </c>
       <c r="Q17" t="n">
-        <v>2315.429975153287</v>
+        <v>2315.429975153288</v>
       </c>
       <c r="R17" t="n">
         <v>2435.83858854475</v>
       </c>
       <c r="S17" t="n">
-        <v>2396.753554689517</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T17" t="n">
-        <v>2396.753554689517</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="U17" t="n">
-        <v>2137.687712662458</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="V17" t="n">
-        <v>1775.070762596285</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="W17" t="n">
-        <v>1370.215308007318</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="X17" t="n">
-        <v>1370.215308007318</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="Y17" t="n">
-        <v>961.9291843069713</v>
+        <v>2176.772746517691</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I18" t="n">
-        <v>84.02796795020362</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="J18" t="n">
-        <v>180.9245892111574</v>
+        <v>145.6133930318488</v>
       </c>
       <c r="K18" t="n">
-        <v>346.5363484128906</v>
+        <v>293.3357920169558</v>
       </c>
       <c r="L18" t="n">
-        <v>569.2217964201103</v>
+        <v>516.0212400241753</v>
       </c>
       <c r="M18" t="n">
-        <v>775.8846544545776</v>
+        <v>775.8846544545777</v>
       </c>
       <c r="N18" t="n">
         <v>1042.62588021723</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>960.6130957094508</v>
+        <v>733.6215338736539</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0513841926758</v>
+        <v>561.0598223568788</v>
       </c>
       <c r="D19" t="n">
-        <v>622.1733913941985</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E19" t="n">
-        <v>452.4153876449357</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F19" t="n">
-        <v>275.7083336066918</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G19" t="n">
-        <v>110.9943444312342</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H19" t="n">
-        <v>110.9943444312342</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I19" t="n">
         <v>48.71677177089499</v>
@@ -5682,16 +5682,16 @@
         <v>755.4457839356249</v>
       </c>
       <c r="M19" t="n">
-        <v>890.2277016683195</v>
+        <v>1349.711568849232</v>
       </c>
       <c r="N19" t="n">
-        <v>1185.276419525378</v>
+        <v>1923.547476988287</v>
       </c>
       <c r="O19" t="n">
-        <v>1726.478421573054</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P19" t="n">
-        <v>2177.977581014356</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q19" t="n">
         <v>2418.169210152066</v>
@@ -5700,25 +5700,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S19" t="n">
-        <v>2291.885918716712</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T19" t="n">
-        <v>2049.754875253312</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U19" t="n">
-        <v>1771.369726459075</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V19" t="n">
-        <v>1484.414218329505</v>
+        <v>1628.366888157543</v>
       </c>
       <c r="W19" t="n">
-        <v>1379.85138511433</v>
+        <v>1356.340483743835</v>
       </c>
       <c r="X19" t="n">
-        <v>1379.85138511433</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y19" t="n">
-        <v>1152.431714428438</v>
+        <v>883.5290583913552</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>711.5386933011422</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C20" t="n">
-        <v>711.5386933011422</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D20" t="n">
-        <v>711.5386933011422</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E20" t="n">
-        <v>711.5386933011422</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F20" t="n">
-        <v>711.5386933011422</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G20" t="n">
-        <v>317.8175176716226</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H20" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I20" t="n">
-        <v>122.207197052979</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J20" t="n">
-        <v>284.8964781041976</v>
+        <v>284.896478104198</v>
       </c>
       <c r="K20" t="n">
-        <v>528.7255375544862</v>
+        <v>528.7255375544869</v>
       </c>
       <c r="L20" t="n">
-        <v>831.2170466428694</v>
+        <v>831.2170466428701</v>
       </c>
       <c r="M20" t="n">
-        <v>1167.797134377708</v>
+        <v>1167.797134377709</v>
       </c>
       <c r="N20" t="n">
         <v>1509.823439815745</v>
@@ -5770,34 +5770,34 @@
         <v>1832.789181316721</v>
       </c>
       <c r="P20" t="n">
-        <v>2108.432969611294</v>
+        <v>2108.432969611295</v>
       </c>
       <c r="Q20" t="n">
-        <v>2315.429975153287</v>
+        <v>2315.429975153288</v>
       </c>
       <c r="R20" t="n">
         <v>2435.83858854475</v>
       </c>
       <c r="S20" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.332692934145</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="U20" t="n">
-        <v>1965.266850907086</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="V20" t="n">
-        <v>1965.266850907086</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="W20" t="n">
-        <v>1965.266850907086</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="X20" t="n">
-        <v>1546.124387486397</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="Y20" t="n">
-        <v>1137.83826378605</v>
+        <v>2210.710774330432</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>180.9245892111574</v>
       </c>
       <c r="K21" t="n">
-        <v>346.5363484128907</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L21" t="n">
-        <v>569.2217964201103</v>
+        <v>516.0212400241751</v>
       </c>
       <c r="M21" t="n">
-        <v>829.0852108505127</v>
+        <v>775.8846544545776</v>
       </c>
       <c r="N21" t="n">
-        <v>1095.826436613165</v>
+        <v>1042.62588021723</v>
       </c>
       <c r="O21" t="n">
-        <v>1339.842546057618</v>
+        <v>1286.641989661683</v>
       </c>
       <c r="P21" t="n">
-        <v>1535.686986727012</v>
+        <v>1482.486430331076</v>
       </c>
       <c r="Q21" t="n">
-        <v>1666.603808841993</v>
+        <v>1613.403252446057</v>
       </c>
       <c r="R21" t="n">
         <v>1677.080359849152</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>834.7132779738997</v>
+        <v>547.7577698443301</v>
       </c>
       <c r="C22" t="n">
-        <v>662.1515664571247</v>
+        <v>407.8106396331989</v>
       </c>
       <c r="D22" t="n">
-        <v>496.2735736586474</v>
+        <v>407.8106396331989</v>
       </c>
       <c r="E22" t="n">
-        <v>326.5155699093846</v>
+        <v>407.8106396331989</v>
       </c>
       <c r="F22" t="n">
-        <v>180.819077797402</v>
+        <v>407.8106396331989</v>
       </c>
       <c r="G22" t="n">
-        <v>180.819077797402</v>
+        <v>243.0966504577413</v>
       </c>
       <c r="H22" t="n">
-        <v>48.71677177089499</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I22" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5065980312421</v>
+        <v>196.086283195932</v>
       </c>
       <c r="K22" t="n">
-        <v>209.402956473731</v>
+        <v>570.7410962095564</v>
       </c>
       <c r="L22" t="n">
-        <v>476.6585936536289</v>
+        <v>1116.78392367145</v>
       </c>
       <c r="M22" t="n">
-        <v>611.4405113863235</v>
+        <v>1251.565841404145</v>
       </c>
       <c r="N22" t="n">
-        <v>1185.276419525378</v>
+        <v>1383.142946385555</v>
       </c>
       <c r="O22" t="n">
         <v>1726.478421573054</v>
@@ -5946,16 +5946,16 @@
         <v>1771.369726459075</v>
       </c>
       <c r="V22" t="n">
-        <v>1771.369726459075</v>
+        <v>1484.414218329505</v>
       </c>
       <c r="W22" t="n">
-        <v>1499.343322045366</v>
+        <v>1212.387813915797</v>
       </c>
       <c r="X22" t="n">
-        <v>1253.951567378779</v>
+        <v>966.9960592492091</v>
       </c>
       <c r="Y22" t="n">
-        <v>1026.531896692887</v>
+        <v>739.5763885633173</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1189.734735329904</v>
+        <v>1750.473176032783</v>
       </c>
       <c r="C23" t="n">
-        <v>751.5922625133276</v>
+        <v>1312.330703216207</v>
       </c>
       <c r="D23" t="n">
-        <v>751.5922625133276</v>
+        <v>876.420918390651</v>
       </c>
       <c r="E23" t="n">
-        <v>317.8175176716227</v>
+        <v>442.6461735489461</v>
       </c>
       <c r="F23" t="n">
-        <v>317.8175176716227</v>
+        <v>442.6461735489461</v>
       </c>
       <c r="G23" t="n">
         <v>317.8175176716227</v>
@@ -5986,55 +5986,55 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I23" t="n">
-        <v>122.2071970529798</v>
+        <v>122.2071970529796</v>
       </c>
       <c r="J23" t="n">
-        <v>284.8964781041983</v>
+        <v>284.896478104198</v>
       </c>
       <c r="K23" t="n">
-        <v>528.7255375544869</v>
+        <v>528.7255375544864</v>
       </c>
       <c r="L23" t="n">
-        <v>831.2170466428701</v>
+        <v>831.2170466428695</v>
       </c>
       <c r="M23" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N23" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O23" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P23" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q23" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R23" t="n">
         <v>2435.83858854475</v>
       </c>
       <c r="S23" t="n">
-        <v>2396.753554689517</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T23" t="n">
-        <v>2396.753554689517</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="U23" t="n">
-        <v>2396.753554689517</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="V23" t="n">
-        <v>2396.753554689517</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="W23" t="n">
-        <v>2396.753554689517</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="X23" t="n">
-        <v>1977.611091268828</v>
+        <v>2176.772746517691</v>
       </c>
       <c r="Y23" t="n">
-        <v>1616.034305814812</v>
+        <v>2176.772746517691</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I24" t="n">
-        <v>48.71677177089499</v>
+        <v>84.02796795020362</v>
       </c>
       <c r="J24" t="n">
-        <v>127.7240328152223</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K24" t="n">
-        <v>293.3357920169556</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L24" t="n">
-        <v>516.0212400241751</v>
+        <v>569.2217964201102</v>
       </c>
       <c r="M24" t="n">
-        <v>775.8846544545776</v>
+        <v>829.0852108505126</v>
       </c>
       <c r="N24" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O24" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P24" t="n">
         <v>1482.486430331076</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>547.7577698443301</v>
+        <v>834.7132779738997</v>
       </c>
       <c r="C25" t="n">
-        <v>383.1887646956153</v>
+        <v>662.1515664571247</v>
       </c>
       <c r="D25" t="n">
-        <v>383.1887646956153</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4307609463526</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="F25" t="n">
-        <v>213.4307609463526</v>
+        <v>407.8106396331989</v>
       </c>
       <c r="G25" t="n">
-        <v>48.71677177089499</v>
+        <v>243.0966504577413</v>
       </c>
       <c r="H25" t="n">
-        <v>48.71677177089499</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I25" t="n">
         <v>48.71677177089499</v>
@@ -6156,16 +6156,16 @@
         <v>1116.78392367145</v>
       </c>
       <c r="M25" t="n">
-        <v>1251.565841404145</v>
+        <v>1401.20620851431</v>
       </c>
       <c r="N25" t="n">
-        <v>1383.142946385555</v>
+        <v>1532.78331349572</v>
       </c>
       <c r="O25" t="n">
-        <v>1924.344948433231</v>
+        <v>2073.985315543396</v>
       </c>
       <c r="P25" t="n">
-        <v>2346.170355878688</v>
+        <v>2177.977581014356</v>
       </c>
       <c r="Q25" t="n">
         <v>2418.169210152066</v>
@@ -6183,16 +6183,16 @@
         <v>1771.369726459075</v>
       </c>
       <c r="V25" t="n">
-        <v>1484.414218329505</v>
+        <v>1771.369726459075</v>
       </c>
       <c r="W25" t="n">
-        <v>1212.387813915797</v>
+        <v>1499.343322045366</v>
       </c>
       <c r="X25" t="n">
-        <v>966.9960592492091</v>
+        <v>1253.951567378779</v>
       </c>
       <c r="Y25" t="n">
-        <v>739.5763885633173</v>
+        <v>1026.531896692887</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1757.630283097002</v>
+        <v>1034.287155746935</v>
       </c>
       <c r="C26" t="n">
-        <v>1319.487810280425</v>
+        <v>596.1446829303586</v>
       </c>
       <c r="D26" t="n">
-        <v>883.5780254548695</v>
+        <v>596.1446829303586</v>
       </c>
       <c r="E26" t="n">
-        <v>745.6849472624149</v>
+        <v>596.1446829303586</v>
       </c>
       <c r="F26" t="n">
-        <v>317.8175176716227</v>
+        <v>168.2772533395664</v>
       </c>
       <c r="G26" t="n">
-        <v>317.8175176716227</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H26" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I26" t="n">
-        <v>122.2071970529794</v>
+        <v>122.2071970529801</v>
       </c>
       <c r="J26" t="n">
-        <v>284.8964781041978</v>
+        <v>284.8964781041986</v>
       </c>
       <c r="K26" t="n">
-        <v>528.7255375544864</v>
+        <v>528.7255375544871</v>
       </c>
       <c r="L26" t="n">
-        <v>831.2170466428696</v>
+        <v>831.2170466428703</v>
       </c>
       <c r="M26" t="n">
-        <v>1167.797134377708</v>
+        <v>1167.797134377709</v>
       </c>
       <c r="N26" t="n">
-        <v>1509.823439815744</v>
+        <v>1509.823439815745</v>
       </c>
       <c r="O26" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P26" t="n">
-        <v>2108.432969611294</v>
+        <v>2108.432969611295</v>
       </c>
       <c r="Q26" t="n">
-        <v>2315.429975153287</v>
+        <v>2315.429975153288</v>
       </c>
       <c r="R26" t="n">
         <v>2435.83858854475</v>
@@ -6256,22 +6256,22 @@
         <v>2435.83858854475</v>
       </c>
       <c r="T26" t="n">
-        <v>2435.83858854475</v>
+        <v>2224.332692934145</v>
       </c>
       <c r="U26" t="n">
-        <v>2176.772746517691</v>
+        <v>2224.332692934145</v>
       </c>
       <c r="V26" t="n">
-        <v>2176.772746517691</v>
+        <v>1861.715742867971</v>
       </c>
       <c r="W26" t="n">
-        <v>2176.772746517691</v>
+        <v>1861.715742867971</v>
       </c>
       <c r="X26" t="n">
-        <v>1757.630283097002</v>
+        <v>1442.573279447282</v>
       </c>
       <c r="Y26" t="n">
-        <v>1757.630283097002</v>
+        <v>1034.287155746935</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>180.9245892111574</v>
       </c>
       <c r="K27" t="n">
-        <v>293.3357920169556</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L27" t="n">
-        <v>516.0212400241751</v>
+        <v>569.2217964201102</v>
       </c>
       <c r="M27" t="n">
-        <v>775.8846544545776</v>
+        <v>829.0852108505126</v>
       </c>
       <c r="N27" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O27" t="n">
         <v>1286.641989661683</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1030.437829075619</v>
+        <v>1026.531896692887</v>
       </c>
       <c r="C28" t="n">
-        <v>857.8761175588435</v>
+        <v>853.9701851761118</v>
       </c>
       <c r="D28" t="n">
-        <v>691.9981247603662</v>
+        <v>688.0921923776345</v>
       </c>
       <c r="E28" t="n">
         <v>522.2401210111034</v>
@@ -6390,19 +6390,19 @@
         <v>570.7410962095564</v>
       </c>
       <c r="L28" t="n">
-        <v>698.5740419034894</v>
+        <v>1116.78392367145</v>
       </c>
       <c r="M28" t="n">
-        <v>1292.839826817097</v>
+        <v>1711.049708585058</v>
       </c>
       <c r="N28" t="n">
-        <v>1866.675734956151</v>
+        <v>1952.452562721501</v>
       </c>
       <c r="O28" t="n">
-        <v>1988.208487778046</v>
+        <v>2073.985315543396</v>
       </c>
       <c r="P28" t="n">
-        <v>2346.170355878688</v>
+        <v>2177.977581014356</v>
       </c>
       <c r="Q28" t="n">
         <v>2418.169210152066</v>
@@ -6417,19 +6417,19 @@
         <v>2049.754875253312</v>
       </c>
       <c r="U28" t="n">
-        <v>2008.658031023775</v>
+        <v>1771.369726459075</v>
       </c>
       <c r="V28" t="n">
-        <v>1721.702522894206</v>
+        <v>1771.369726459075</v>
       </c>
       <c r="W28" t="n">
-        <v>1449.676118480498</v>
+        <v>1499.343322045366</v>
       </c>
       <c r="X28" t="n">
-        <v>1449.676118480498</v>
+        <v>1253.951567378779</v>
       </c>
       <c r="Y28" t="n">
-        <v>1222.256447794606</v>
+        <v>1026.531896692887</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>348.9217432349687</v>
+        <v>1563.56486698568</v>
       </c>
       <c r="C29" t="n">
-        <v>48.71677177089499</v>
+        <v>1563.56486698568</v>
       </c>
       <c r="D29" t="n">
-        <v>48.71677177089499</v>
+        <v>1127.655082160124</v>
       </c>
       <c r="E29" t="n">
-        <v>48.71677177089499</v>
+        <v>693.8803373184192</v>
       </c>
       <c r="F29" t="n">
-        <v>48.71677177089499</v>
+        <v>266.0129077276269</v>
       </c>
       <c r="G29" t="n">
         <v>48.71677177089499</v>
@@ -6466,7 +6466,7 @@
         <v>284.8964781041979</v>
       </c>
       <c r="K29" t="n">
-        <v>528.7255375544866</v>
+        <v>528.7255375544864</v>
       </c>
       <c r="L29" t="n">
         <v>831.2170466428696</v>
@@ -6490,25 +6490,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S29" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.332692934145</v>
+        <v>2185.247659078912</v>
       </c>
       <c r="U29" t="n">
-        <v>1965.266850907086</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="V29" t="n">
-        <v>1602.649900840912</v>
+        <v>1563.56486698568</v>
       </c>
       <c r="W29" t="n">
-        <v>1602.649900840912</v>
+        <v>1563.56486698568</v>
       </c>
       <c r="X29" t="n">
-        <v>1183.507437420223</v>
+        <v>1563.56486698568</v>
       </c>
       <c r="Y29" t="n">
-        <v>775.2213137198765</v>
+        <v>1563.56486698568</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>180.9245892111574</v>
       </c>
       <c r="K30" t="n">
-        <v>346.5363484128906</v>
+        <v>293.3357920169558</v>
       </c>
       <c r="L30" t="n">
-        <v>569.2217964201103</v>
+        <v>516.0212400241753</v>
       </c>
       <c r="M30" t="n">
-        <v>829.0852108505127</v>
+        <v>775.8846544545777</v>
       </c>
       <c r="N30" t="n">
-        <v>1095.826436613165</v>
+        <v>1042.62588021723</v>
       </c>
       <c r="O30" t="n">
-        <v>1339.842546057618</v>
+        <v>1286.641989661683</v>
       </c>
       <c r="P30" t="n">
-        <v>1535.686986727012</v>
+        <v>1482.486430331076</v>
       </c>
       <c r="Q30" t="n">
-        <v>1666.603808841992</v>
+        <v>1613.403252446057</v>
       </c>
       <c r="R30" t="n">
         <v>1677.080359849152</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>739.5763885633173</v>
+        <v>750.1303548992367</v>
       </c>
       <c r="C31" t="n">
-        <v>567.0146770465423</v>
+        <v>577.5686433824617</v>
       </c>
       <c r="D31" t="n">
-        <v>401.136684248065</v>
+        <v>577.5686433824617</v>
       </c>
       <c r="E31" t="n">
-        <v>231.3786804988022</v>
+        <v>407.8106396331989</v>
       </c>
       <c r="F31" t="n">
-        <v>180.819077797402</v>
+        <v>407.8106396331989</v>
       </c>
       <c r="G31" t="n">
-        <v>180.819077797402</v>
+        <v>243.0966504577413</v>
       </c>
       <c r="H31" t="n">
-        <v>48.71677177089499</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I31" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5065980312421</v>
+        <v>196.086283195932</v>
       </c>
       <c r="K31" t="n">
-        <v>209.402956473731</v>
+        <v>570.7410962095564</v>
       </c>
       <c r="L31" t="n">
-        <v>337.2359021676639</v>
+        <v>1116.78392367145</v>
       </c>
       <c r="M31" t="n">
-        <v>931.5016870812715</v>
+        <v>1473.36856376975</v>
       </c>
       <c r="N31" t="n">
-        <v>1353.46919438971</v>
+        <v>1604.945668751159</v>
       </c>
       <c r="O31" t="n">
-        <v>1894.671196437387</v>
+        <v>1726.478421573054</v>
       </c>
       <c r="P31" t="n">
-        <v>2346.170355878688</v>
+        <v>2177.977581014356</v>
       </c>
       <c r="Q31" t="n">
         <v>2418.169210152066</v>
@@ -6663,10 +6663,10 @@
         <v>1212.387813915797</v>
       </c>
       <c r="X31" t="n">
-        <v>966.9960592492091</v>
+        <v>1169.368644304116</v>
       </c>
       <c r="Y31" t="n">
-        <v>739.5763885633173</v>
+        <v>941.9489736182238</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>951.0728445866281</v>
+        <v>914.7266741782639</v>
       </c>
       <c r="C32" t="n">
-        <v>951.0728445866281</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="D32" t="n">
-        <v>515.1630597610726</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="E32" t="n">
-        <v>81.38831491936782</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F32" t="n">
         <v>48.71677177089499</v>
@@ -6697,16 +6697,16 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I32" t="n">
-        <v>122.2071970529792</v>
+        <v>122.2071970529796</v>
       </c>
       <c r="J32" t="n">
-        <v>284.8964781041976</v>
+        <v>284.896478104198</v>
       </c>
       <c r="K32" t="n">
-        <v>528.7255375544861</v>
+        <v>528.7255375544864</v>
       </c>
       <c r="L32" t="n">
-        <v>831.2170466428691</v>
+        <v>831.2170466428695</v>
       </c>
       <c r="M32" t="n">
         <v>1167.797134377708</v>
@@ -6724,28 +6724,28 @@
         <v>2315.429975153287</v>
       </c>
       <c r="R32" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S32" t="n">
-        <v>2396.753554689516</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T32" t="n">
-        <v>2396.753554689516</v>
+        <v>2224.332692934145</v>
       </c>
       <c r="U32" t="n">
-        <v>2137.687712662458</v>
+        <v>2224.332692934145</v>
       </c>
       <c r="V32" t="n">
-        <v>1775.070762596284</v>
+        <v>2165.024162672828</v>
       </c>
       <c r="W32" t="n">
-        <v>1370.215308007317</v>
+        <v>1760.168708083861</v>
       </c>
       <c r="X32" t="n">
-        <v>951.0728445866281</v>
+        <v>1341.026244663172</v>
       </c>
       <c r="Y32" t="n">
-        <v>951.0728445866281</v>
+        <v>1341.026244663172</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>164.684848684769</v>
       </c>
       <c r="G33" t="n">
-        <v>80.3461818401917</v>
+        <v>80.34618184019172</v>
       </c>
       <c r="H33" t="n">
         <v>48.71677177089499</v>
@@ -6782,19 +6782,19 @@
         <v>180.9245892111574</v>
       </c>
       <c r="K33" t="n">
-        <v>346.5363484128906</v>
+        <v>293.3357920169558</v>
       </c>
       <c r="L33" t="n">
-        <v>569.2217964201103</v>
+        <v>516.0212400241753</v>
       </c>
       <c r="M33" t="n">
-        <v>829.0852108505127</v>
+        <v>775.8846544545777</v>
       </c>
       <c r="N33" t="n">
-        <v>1095.826436613165</v>
+        <v>1042.62588021723</v>
       </c>
       <c r="O33" t="n">
-        <v>1339.842546057618</v>
+        <v>1286.641989661683</v>
       </c>
       <c r="P33" t="n">
         <v>1482.486430331076</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.8888133077289</v>
+        <v>691.710439672368</v>
       </c>
       <c r="C34" t="n">
-        <v>755.4397010437251</v>
+        <v>519.1487281555929</v>
       </c>
       <c r="D34" t="n">
-        <v>589.5617082452478</v>
+        <v>353.2707353571157</v>
       </c>
       <c r="E34" t="n">
-        <v>419.8037044959851</v>
+        <v>183.5127316078529</v>
       </c>
       <c r="F34" t="n">
-        <v>243.0966504577413</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G34" t="n">
-        <v>243.0966504577413</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H34" t="n">
-        <v>110.9943444312342</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I34" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5065980312421</v>
+        <v>196.086283195932</v>
       </c>
       <c r="K34" t="n">
-        <v>209.402956473731</v>
+        <v>570.7410962095564</v>
       </c>
       <c r="L34" t="n">
-        <v>476.6585936536285</v>
+        <v>1116.78392367145</v>
       </c>
       <c r="M34" t="n">
-        <v>611.440511386323</v>
+        <v>1251.565841404145</v>
       </c>
       <c r="N34" t="n">
-        <v>1185.276419525377</v>
+        <v>1383.142946385555</v>
       </c>
       <c r="O34" t="n">
-        <v>1726.478421573054</v>
+        <v>1924.344948433231</v>
       </c>
       <c r="P34" t="n">
-        <v>2177.977581014356</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q34" t="n">
         <v>2418.169210152066</v>
       </c>
       <c r="R34" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S34" t="n">
-        <v>2291.885918716711</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T34" t="n">
-        <v>2291.885918716711</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.500769922473</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.545261792904</v>
+        <v>1628.366888157543</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.518857379195</v>
+        <v>1356.340483743835</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.127102712608</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y34" t="n">
-        <v>981.7074320267161</v>
+        <v>883.5290583913552</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1499.882246566945</v>
+        <v>1356.543774254732</v>
       </c>
       <c r="C35" t="n">
-        <v>1061.739773750369</v>
+        <v>918.4013014381553</v>
       </c>
       <c r="D35" t="n">
-        <v>1061.739773750369</v>
+        <v>482.4915166125998</v>
       </c>
       <c r="E35" t="n">
-        <v>745.6849472624149</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="F35" t="n">
-        <v>317.8175176716227</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G35" t="n">
-        <v>317.8175176716227</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H35" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I35" t="n">
-        <v>122.2071970529792</v>
+        <v>122.2071970529796</v>
       </c>
       <c r="J35" t="n">
         <v>284.896478104198</v>
       </c>
       <c r="K35" t="n">
-        <v>528.7255375544869</v>
+        <v>528.7255375544864</v>
       </c>
       <c r="L35" t="n">
-        <v>831.2170466428701</v>
+        <v>831.2170466428695</v>
       </c>
       <c r="M35" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N35" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O35" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P35" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q35" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R35" t="n">
         <v>2435.83858854475</v>
@@ -6967,22 +6967,22 @@
         <v>2396.753554689517</v>
       </c>
       <c r="T35" t="n">
-        <v>2185.247659078912</v>
+        <v>2386.512690048311</v>
       </c>
       <c r="U35" t="n">
-        <v>1926.181817051853</v>
+        <v>2127.446848021252</v>
       </c>
       <c r="V35" t="n">
-        <v>1926.181817051853</v>
+        <v>1764.829897955079</v>
       </c>
       <c r="W35" t="n">
-        <v>1926.181817051853</v>
+        <v>1764.829897955079</v>
       </c>
       <c r="X35" t="n">
-        <v>1926.181817051853</v>
+        <v>1764.829897955079</v>
       </c>
       <c r="Y35" t="n">
-        <v>1926.181817051853</v>
+        <v>1356.543774254732</v>
       </c>
     </row>
     <row r="36">
@@ -7022,10 +7022,10 @@
         <v>346.5363484128906</v>
       </c>
       <c r="L36" t="n">
-        <v>569.2217964201103</v>
+        <v>569.2217964201102</v>
       </c>
       <c r="M36" t="n">
-        <v>829.0852108505127</v>
+        <v>775.8846544545777</v>
       </c>
       <c r="N36" t="n">
         <v>1042.62588021723</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>547.7577698443301</v>
+        <v>960.6130957094508</v>
       </c>
       <c r="C37" t="n">
-        <v>375.1960583275551</v>
+        <v>788.0513841926758</v>
       </c>
       <c r="D37" t="n">
-        <v>209.3180655290778</v>
+        <v>622.1733913941985</v>
       </c>
       <c r="E37" t="n">
-        <v>48.71677177089499</v>
+        <v>452.4153876449357</v>
       </c>
       <c r="F37" t="n">
-        <v>48.71677177089499</v>
+        <v>275.7083336066918</v>
       </c>
       <c r="G37" t="n">
-        <v>48.71677177089499</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="H37" t="n">
-        <v>48.71677177089499</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I37" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5065980312421</v>
+        <v>196.086283195932</v>
       </c>
       <c r="K37" t="n">
-        <v>484.1614110448666</v>
+        <v>570.7410962095564</v>
       </c>
       <c r="L37" t="n">
-        <v>611.9943567387996</v>
+        <v>1116.78392367145</v>
       </c>
       <c r="M37" t="n">
-        <v>1053.699314543968</v>
+        <v>1473.36856376975</v>
       </c>
       <c r="N37" t="n">
-        <v>1185.276419525378</v>
+        <v>1604.945668751159</v>
       </c>
       <c r="O37" t="n">
         <v>1726.478421573054</v>
@@ -7122,25 +7122,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S37" t="n">
-        <v>2291.885918716712</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T37" t="n">
-        <v>2049.754875253312</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U37" t="n">
-        <v>1771.369726459075</v>
+        <v>2184.225052324195</v>
       </c>
       <c r="V37" t="n">
-        <v>1484.414218329505</v>
+        <v>1897.269544194626</v>
       </c>
       <c r="W37" t="n">
-        <v>1212.387813915797</v>
+        <v>1625.243139780917</v>
       </c>
       <c r="X37" t="n">
-        <v>966.9960592492091</v>
+        <v>1379.85138511433</v>
       </c>
       <c r="Y37" t="n">
-        <v>739.5763885633173</v>
+        <v>1152.431714428438</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1581.036805265653</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C38" t="n">
-        <v>1581.036805265653</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D38" t="n">
-        <v>1145.127020440098</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E38" t="n">
-        <v>1145.127020440098</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F38" t="n">
-        <v>717.2595908493054</v>
+        <v>48.71677177089498</v>
       </c>
       <c r="G38" t="n">
-        <v>317.8175176716227</v>
+        <v>48.71677177089498</v>
       </c>
       <c r="H38" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089498</v>
       </c>
       <c r="I38" t="n">
-        <v>122.2071970529798</v>
+        <v>122.2071970529787</v>
       </c>
       <c r="J38" t="n">
-        <v>284.8964781041983</v>
+        <v>284.8964781041972</v>
       </c>
       <c r="K38" t="n">
-        <v>528.7255375544869</v>
+        <v>528.7255375544858</v>
       </c>
       <c r="L38" t="n">
-        <v>831.2170466428701</v>
+        <v>831.2170466428689</v>
       </c>
       <c r="M38" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N38" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.789181316721</v>
+        <v>1832.78918131672</v>
       </c>
       <c r="P38" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611293</v>
       </c>
       <c r="Q38" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153286</v>
       </c>
       <c r="R38" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S38" t="n">
-        <v>2396.753554689517</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T38" t="n">
-        <v>2185.247659078912</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="U38" t="n">
-        <v>2185.247659078912</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="V38" t="n">
-        <v>1985.89225985462</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="W38" t="n">
-        <v>1581.036805265653</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="X38" t="n">
-        <v>1581.036805265653</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="Y38" t="n">
-        <v>1581.036805265653</v>
+        <v>2210.710774330432</v>
       </c>
     </row>
     <row r="39">
@@ -7244,25 +7244,25 @@
         <v>164.684848684769</v>
       </c>
       <c r="G39" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H39" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089498</v>
       </c>
       <c r="I39" t="n">
-        <v>48.71677177089499</v>
+        <v>84.0279679502036</v>
       </c>
       <c r="J39" t="n">
-        <v>145.6133930318488</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K39" t="n">
-        <v>293.3357920169556</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L39" t="n">
-        <v>516.0212400241751</v>
+        <v>569.2217964201102</v>
       </c>
       <c r="M39" t="n">
-        <v>775.8846544545776</v>
+        <v>775.8846544545777</v>
       </c>
       <c r="N39" t="n">
         <v>1042.62588021723</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.8374089374805</v>
+        <v>1092.715401735958</v>
       </c>
       <c r="C40" t="n">
-        <v>754.2756974207055</v>
+        <v>920.1536902191827</v>
       </c>
       <c r="D40" t="n">
         <v>754.2756974207055</v>
@@ -7329,10 +7329,10 @@
         <v>110.9943444312342</v>
       </c>
       <c r="I40" t="n">
-        <v>48.71677177089499</v>
+        <v>48.71677177089498</v>
       </c>
       <c r="J40" t="n">
-        <v>196.086283195932</v>
+        <v>196.0862831959319</v>
       </c>
       <c r="K40" t="n">
         <v>570.7410962095564</v>
@@ -7341,43 +7341,43 @@
         <v>1116.78392367145</v>
       </c>
       <c r="M40" t="n">
-        <v>1711.049708585058</v>
+        <v>1251.565841404145</v>
       </c>
       <c r="N40" t="n">
-        <v>1952.452562721501</v>
+        <v>1383.142946385555</v>
       </c>
       <c r="O40" t="n">
-        <v>2073.985315543396</v>
+        <v>1726.478421573053</v>
       </c>
       <c r="P40" t="n">
         <v>2177.977581014356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2418.169210152066</v>
+        <v>2418.169210152065</v>
       </c>
       <c r="R40" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S40" t="n">
-        <v>2392.580409015624</v>
+        <v>2291.885918716711</v>
       </c>
       <c r="T40" t="n">
-        <v>2150.449365552225</v>
+        <v>2049.754875253311</v>
       </c>
       <c r="U40" t="n">
-        <v>2150.449365552225</v>
+        <v>2044.300953936994</v>
       </c>
       <c r="V40" t="n">
-        <v>1863.493857422655</v>
+        <v>1757.345445807424</v>
       </c>
       <c r="W40" t="n">
-        <v>1591.467453008947</v>
+        <v>1757.345445807424</v>
       </c>
       <c r="X40" t="n">
-        <v>1346.075698342359</v>
+        <v>1511.953691140837</v>
       </c>
       <c r="Y40" t="n">
-        <v>1118.656027656468</v>
+        <v>1284.534020454945</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1189.734735329904</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C41" t="n">
-        <v>751.5922625133276</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D41" t="n">
-        <v>751.5922625133276</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E41" t="n">
-        <v>317.8175176716227</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F41" t="n">
-        <v>317.8175176716227</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G41" t="n">
-        <v>317.8175176716227</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H41" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I41" t="n">
-        <v>122.2071970529798</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J41" t="n">
-        <v>284.8964781041983</v>
+        <v>284.896478104198</v>
       </c>
       <c r="K41" t="n">
-        <v>528.7255375544869</v>
+        <v>528.7255375544867</v>
       </c>
       <c r="L41" t="n">
-        <v>831.2170466428701</v>
+        <v>831.2170466428696</v>
       </c>
       <c r="M41" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N41" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O41" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P41" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q41" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R41" t="n">
         <v>2435.83858854475</v>
@@ -7441,22 +7441,22 @@
         <v>2396.753554689517</v>
       </c>
       <c r="T41" t="n">
-        <v>2185.247659078912</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="U41" t="n">
-        <v>2185.247659078912</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="V41" t="n">
-        <v>2185.247659078912</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="W41" t="n">
-        <v>1780.392204489945</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="X41" t="n">
-        <v>1616.034305814812</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="Y41" t="n">
-        <v>1616.034305814812</v>
+        <v>2210.710774330432</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I42" t="n">
-        <v>48.71677177089499</v>
+        <v>84.02796795020362</v>
       </c>
       <c r="J42" t="n">
-        <v>145.6133930318488</v>
+        <v>127.7240328152223</v>
       </c>
       <c r="K42" t="n">
-        <v>311.225152233582</v>
+        <v>293.3357920169556</v>
       </c>
       <c r="L42" t="n">
-        <v>533.9106002408016</v>
+        <v>516.0212400241751</v>
       </c>
       <c r="M42" t="n">
-        <v>793.7740146712041</v>
+        <v>775.8846544545776</v>
       </c>
       <c r="N42" t="n">
         <v>1042.62588021723</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1020.569195196809</v>
+        <v>919.1301103582598</v>
       </c>
       <c r="C43" t="n">
-        <v>848.0074836800344</v>
+        <v>919.1301103582598</v>
       </c>
       <c r="D43" t="n">
-        <v>682.1294908815571</v>
+        <v>753.2521175597825</v>
       </c>
       <c r="E43" t="n">
-        <v>584.5176936714427</v>
+        <v>583.4941138105198</v>
       </c>
       <c r="F43" t="n">
-        <v>407.8106396331989</v>
+        <v>406.7870597722761</v>
       </c>
       <c r="G43" t="n">
-        <v>243.0966504577413</v>
+        <v>242.0730705968185</v>
       </c>
       <c r="H43" t="n">
         <v>110.9943444312342</v>
@@ -7572,22 +7572,22 @@
         <v>109.5065980312421</v>
       </c>
       <c r="K43" t="n">
-        <v>484.1614110448666</v>
+        <v>209.402956473731</v>
       </c>
       <c r="L43" t="n">
-        <v>1030.204238506761</v>
+        <v>532.8743953073899</v>
       </c>
       <c r="M43" t="n">
-        <v>1624.470023420368</v>
+        <v>1127.140180220998</v>
       </c>
       <c r="N43" t="n">
-        <v>1756.047128401778</v>
+        <v>1700.976088360052</v>
       </c>
       <c r="O43" t="n">
-        <v>1877.579881223673</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P43" t="n">
-        <v>2177.977581014356</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q43" t="n">
         <v>2418.169210152066</v>
@@ -7596,25 +7596,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S43" t="n">
-        <v>2291.885918716712</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T43" t="n">
-        <v>2049.754875253312</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U43" t="n">
-        <v>1771.369726459075</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V43" t="n">
-        <v>1484.414218329505</v>
+        <v>1628.366888157543</v>
       </c>
       <c r="W43" t="n">
-        <v>1212.387813915797</v>
+        <v>1356.340483743835</v>
       </c>
       <c r="X43" t="n">
-        <v>1212.387813915797</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y43" t="n">
-        <v>1212.387813915797</v>
+        <v>1110.948729077247</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1153.169375674861</v>
+        <v>1563.56486698568</v>
       </c>
       <c r="C44" t="n">
-        <v>1153.169375674861</v>
+        <v>1125.422394169103</v>
       </c>
       <c r="D44" t="n">
-        <v>717.2595908493054</v>
+        <v>1125.422394169103</v>
       </c>
       <c r="E44" t="n">
         <v>717.2595908493054</v>
@@ -7639,37 +7639,37 @@
         <v>717.2595908493054</v>
       </c>
       <c r="G44" t="n">
-        <v>317.8175176716226</v>
+        <v>317.8175176716227</v>
       </c>
       <c r="H44" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I44" t="n">
-        <v>122.2071970529793</v>
+        <v>122.2071970529795</v>
       </c>
       <c r="J44" t="n">
-        <v>284.8964781041978</v>
+        <v>284.8964781041979</v>
       </c>
       <c r="K44" t="n">
-        <v>528.7255375544864</v>
+        <v>528.7255375544866</v>
       </c>
       <c r="L44" t="n">
-        <v>831.2170466428698</v>
+        <v>831.2170466428696</v>
       </c>
       <c r="M44" t="n">
         <v>1167.797134377708</v>
       </c>
       <c r="N44" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O44" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P44" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q44" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R44" t="n">
         <v>2435.83858854475</v>
@@ -7681,19 +7681,19 @@
         <v>2185.247659078912</v>
       </c>
       <c r="U44" t="n">
-        <v>1926.181817051854</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="V44" t="n">
         <v>1563.56486698568</v>
       </c>
       <c r="W44" t="n">
-        <v>1158.709412396713</v>
+        <v>1563.56486698568</v>
       </c>
       <c r="X44" t="n">
-        <v>1153.169375674861</v>
+        <v>1563.56486698568</v>
       </c>
       <c r="Y44" t="n">
-        <v>1153.169375674861</v>
+        <v>1563.56486698568</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>80.34618184019172</v>
       </c>
       <c r="H45" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I45" t="n">
-        <v>48.716771770895</v>
+        <v>84.02796795020362</v>
       </c>
       <c r="J45" t="n">
-        <v>145.6133930318488</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K45" t="n">
-        <v>311.2251522335821</v>
+        <v>346.5363484128906</v>
       </c>
       <c r="L45" t="n">
-        <v>533.9106002408017</v>
+        <v>569.2217964201103</v>
       </c>
       <c r="M45" t="n">
-        <v>793.7740146712041</v>
+        <v>829.0852108505127</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.515240433857</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O45" t="n">
-        <v>1304.53134987831</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P45" t="n">
-        <v>1482.486430331076</v>
+        <v>1535.686986727012</v>
       </c>
       <c r="Q45" t="n">
         <v>1613.403252446057</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.008347697714</v>
+        <v>691.710439672368</v>
       </c>
       <c r="C46" t="n">
-        <v>743.446636180939</v>
+        <v>519.1487281555929</v>
       </c>
       <c r="D46" t="n">
-        <v>577.5686433824617</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E46" t="n">
-        <v>407.8106396331989</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F46" t="n">
-        <v>407.8106396331989</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G46" t="n">
-        <v>243.0966504577413</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H46" t="n">
-        <v>110.9943444312342</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I46" t="n">
-        <v>48.716771770895</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="J46" t="n">
         <v>109.5065980312421</v>
@@ -7812,46 +7812,46 @@
         <v>209.402956473731</v>
       </c>
       <c r="L46" t="n">
-        <v>337.2359021676641</v>
+        <v>532.8743953073899</v>
       </c>
       <c r="M46" t="n">
-        <v>931.5016870812716</v>
+        <v>1127.140180220998</v>
       </c>
       <c r="N46" t="n">
-        <v>1505.337595220326</v>
+        <v>1700.976088360052</v>
       </c>
       <c r="O46" t="n">
-        <v>1894.671196437387</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P46" t="n">
         <v>2346.170355878688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2418.169210152067</v>
+        <v>2418.169210152066</v>
       </c>
       <c r="R46" t="n">
         <v>2435.83858854475</v>
       </c>
       <c r="S46" t="n">
-        <v>2291.885918716712</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T46" t="n">
-        <v>2049.754875253312</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U46" t="n">
-        <v>1894.228549645871</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V46" t="n">
-        <v>1607.273041516301</v>
+        <v>1628.366888157543</v>
       </c>
       <c r="W46" t="n">
-        <v>1335.246637102593</v>
+        <v>1356.340483743835</v>
       </c>
       <c r="X46" t="n">
-        <v>1335.246637102593</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y46" t="n">
-        <v>1107.826966416701</v>
+        <v>883.5290583913552</v>
       </c>
     </row>
   </sheetData>
@@ -8856,19 +8856,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>298.2258465077107</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>224.043153904651</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9090,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>270.5059074698638</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645587</v>
@@ -9099,10 +9099,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>199.0887480783299</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9330,19 +9330,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>165.1228412885339</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>199.0887480783299</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>140.8310015009747</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>224.043153904651</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9804,7 +9804,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>151.1518859698635</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>321.0435777520174</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,22 +10038,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>110.9351001565994</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>256.5349521511939</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>224.0431539046513</v>
       </c>
       <c r="N31" t="n">
-        <v>293.3236387141706</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>140.8310015009744</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>321.0435777520174</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>310.0232728004787</v>
+        <v>224.0431539046513</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10989,16 +10989,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>110.9351001565992</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>224.0431539046504</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>197.6146395350768</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>198.3893275956798</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>197.6146395350768</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645587</v>
@@ -11469,10 +11469,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>270.5059074698643</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>97.42673401724409</v>
       </c>
       <c r="G11" t="n">
-        <v>390.7566944262944</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>146.7259856435032</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>134.852851429344</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>61.65479693373586</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.353541983602611</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23512,7 +23512,7 @@
         <v>395.4476524459058</v>
       </c>
       <c r="H14" t="n">
-        <v>266.4097384417204</v>
+        <v>234.0649107247319</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>14.65840001117874</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>8.05405335502337</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I16" t="n">
         <v>61.65479693373585</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>33.59864753461369</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>383.268021435054</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.4476524459058</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T17" t="n">
         <v>209.3908366544989</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>41.49198325927296</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H19" t="n">
         <v>130.781282966242</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>165.7889354865479</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.663688572681451</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>38.69418351668035</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>230.7686862309882</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>32.28843549258738</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>30.70045630699857</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4476524459058</v>
+        <v>271.8672831273556</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T23" t="n">
         <v>209.3908366544989</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24271,10 +24271,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.24224486386743</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>7.912779304379626</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>87.36167881266735</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>292.9228499827577</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4476524459058</v>
+        <v>277.0827756929212</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>38.69418351668036</v>
       </c>
       <c r="T26" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.866873058904275</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>234.9154215190539</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>136.5581263389779</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.4476524459058</v>
+        <v>180.3244778487412</v>
       </c>
       <c r="H29" t="n">
         <v>266.4097384417204</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>124.8859768234751</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>200.3488592043574</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>391.2439275778962</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.4476524459058</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.69418351668036</v>
       </c>
       <c r="T32" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>300.2753356068077</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>136.7314732602435</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>41.49198325927298</v>
       </c>
       <c r="G34" t="n">
         <v>163.066849283703</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T34" t="n">
-        <v>239.7097330287659</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>116.5427191702133</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>395.4476524459058</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>199.252380659705</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25222,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>9.065142891169216</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>130.781282966242</v>
       </c>
       <c r="I37" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>266.2136294767118</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U38" t="n">
         <v>256.4751836067882</v>
       </c>
       <c r="V38" t="n">
-        <v>161.6289353334626</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>230.7686862309891</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>99.68754539592366</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6012973062951</v>
+        <v>270.201915203141</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.4476524459058</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4751836067882</v>
+        <v>72.29283105129397</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>252.2367190981004</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>71.42474447375682</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.013344062313621</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -25867,13 +25867,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>25.35582210668815</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>409.4664024318485</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>41.49198325927304</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>121.6302349549285</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>311314.5758116296</v>
+        <v>311314.5758116297</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>311314.5758116297</v>
+        <v>311314.5758116298</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>311314.5758116297</v>
+        <v>311314.5758116298</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>311314.5758116297</v>
+        <v>311314.5758116298</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>311314.5758116297</v>
+        <v>311314.5758116296</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>444876.937956323</v>
+        <v>444876.9379563229</v>
       </c>
       <c r="C2" t="n">
-        <v>444876.9379563228</v>
+        <v>444876.9379563229</v>
       </c>
       <c r="D2" t="n">
         <v>444876.9379563229</v>
       </c>
       <c r="E2" t="n">
-        <v>274047.3784561928</v>
+        <v>274047.3784561929</v>
       </c>
       <c r="F2" t="n">
-        <v>274047.3784561928</v>
+        <v>274047.3784561929</v>
       </c>
       <c r="G2" t="n">
         <v>274047.3784561929</v>
       </c>
       <c r="H2" t="n">
+        <v>274047.3784561929</v>
+      </c>
+      <c r="I2" t="n">
+        <v>274047.378456193</v>
+      </c>
+      <c r="J2" t="n">
         <v>274047.3784561928</v>
-      </c>
-      <c r="I2" t="n">
-        <v>274047.3784561929</v>
-      </c>
-      <c r="J2" t="n">
-        <v>274047.3784561929</v>
       </c>
       <c r="K2" t="n">
         <v>274047.3784561929</v>
       </c>
       <c r="L2" t="n">
+        <v>274047.3784561929</v>
+      </c>
+      <c r="M2" t="n">
         <v>274047.3784561928</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>274047.3784561928</v>
+      </c>
+      <c r="O2" t="n">
         <v>274047.3784561929</v>
       </c>
-      <c r="N2" t="n">
-        <v>274047.3784561929</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>274047.3784561928</v>
-      </c>
-      <c r="P2" t="n">
-        <v>274047.3784561929</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>568764.8628797383</v>
+        <v>568764.8628797384</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>151755.1799049264</v>
+        <v>151755.1799049265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>21626.0791412571</v>
+        <v>21626.07914125711</v>
       </c>
       <c r="F4" t="n">
-        <v>21626.0791412571</v>
+        <v>21626.07914125711</v>
       </c>
       <c r="G4" t="n">
-        <v>21626.0791412571</v>
+        <v>21626.07914125711</v>
       </c>
       <c r="H4" t="n">
-        <v>21626.0791412571</v>
+        <v>21626.07914125711</v>
       </c>
       <c r="I4" t="n">
         <v>21626.07914125711</v>
@@ -26447,16 +26447,16 @@
         <v>21626.07914125711</v>
       </c>
       <c r="L4" t="n">
-        <v>21626.0791412571</v>
+        <v>21626.07914125711</v>
       </c>
       <c r="M4" t="n">
         <v>21626.07914125711</v>
       </c>
       <c r="N4" t="n">
+        <v>21626.0791412571</v>
+      </c>
+      <c r="O4" t="n">
         <v>21626.07914125711</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21626.0791412571</v>
       </c>
       <c r="P4" t="n">
         <v>21626.07914125711</v>
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47524.27844205806</v>
+        <v>47524.27844205807</v>
       </c>
       <c r="F5" t="n">
-        <v>47524.27844205806</v>
+        <v>47524.27844205807</v>
       </c>
       <c r="G5" t="n">
         <v>47524.27844205807</v>
@@ -26505,13 +26505,13 @@
         <v>47524.27844205807</v>
       </c>
       <c r="N5" t="n">
-        <v>47524.27844205807</v>
+        <v>47524.27844205806</v>
       </c>
       <c r="O5" t="n">
         <v>47524.27844205807</v>
       </c>
       <c r="P5" t="n">
-        <v>47524.27844205809</v>
+        <v>47524.27844205807</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112518.6216444902</v>
+        <v>112486.7149269885</v>
       </c>
       <c r="C6" t="n">
-        <v>112518.62164449</v>
+        <v>112486.7149269884</v>
       </c>
       <c r="D6" t="n">
-        <v>112518.6216444901</v>
+        <v>112486.7149269884</v>
       </c>
       <c r="E6" t="n">
-        <v>-363867.8420068607</v>
+        <v>-364402.188605245</v>
       </c>
       <c r="F6" t="n">
-        <v>204897.0208728777</v>
+        <v>204362.6742744934</v>
       </c>
       <c r="G6" t="n">
-        <v>204897.0208728777</v>
+        <v>204362.6742744934</v>
       </c>
       <c r="H6" t="n">
-        <v>204897.0208728777</v>
+        <v>204362.6742744934</v>
       </c>
       <c r="I6" t="n">
-        <v>204897.0208728777</v>
+        <v>204362.6742744935</v>
       </c>
       <c r="J6" t="n">
-        <v>204897.0208728777</v>
+        <v>204362.6742744934</v>
       </c>
       <c r="K6" t="n">
-        <v>204897.0208728777</v>
+        <v>204362.6742744934</v>
       </c>
       <c r="L6" t="n">
-        <v>204897.0208728776</v>
+        <v>204362.6742744934</v>
       </c>
       <c r="M6" t="n">
-        <v>53141.84096795134</v>
+        <v>52607.49436956694</v>
       </c>
       <c r="N6" t="n">
-        <v>204897.0208728777</v>
+        <v>204362.6742744933</v>
       </c>
       <c r="O6" t="n">
-        <v>204897.0208728777</v>
+        <v>204362.6742744934</v>
       </c>
       <c r="P6" t="n">
-        <v>204897.0208728777</v>
+        <v>204362.6742744934</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>481.6299034943981</v>
+      </c>
+      <c r="F3" t="n">
+        <v>481.6299034943981</v>
+      </c>
+      <c r="G3" t="n">
         <v>481.629903494398</v>
-      </c>
-      <c r="F3" t="n">
-        <v>481.629903494398</v>
-      </c>
-      <c r="G3" t="n">
-        <v>481.6299034943981</v>
       </c>
       <c r="H3" t="n">
         <v>481.6299034943981</v>
       </c>
       <c r="I3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="J3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="K3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="L3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="M3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="N3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.629903494398</v>
       </c>
       <c r="O3" t="n">
         <v>481.6299034943981</v>
       </c>
       <c r="P3" t="n">
-        <v>481.6299034943982</v>
+        <v>481.6299034943981</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>608.9596471361873</v>
+        <v>608.9596471361874</v>
       </c>
       <c r="F4" t="n">
-        <v>608.9596471361872</v>
+        <v>608.9596471361874</v>
       </c>
       <c r="G4" t="n">
         <v>608.9596471361874</v>
@@ -26819,19 +26819,19 @@
         <v>608.9596471361874</v>
       </c>
       <c r="L4" t="n">
-        <v>608.9596471361873</v>
+        <v>608.9596471361874</v>
       </c>
       <c r="M4" t="n">
         <v>608.9596471361874</v>
       </c>
       <c r="N4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361872</v>
       </c>
       <c r="O4" t="n">
         <v>608.9596471361874</v>
       </c>
       <c r="P4" t="n">
-        <v>608.9596471361875</v>
+        <v>608.9596471361874</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>481.629903494398</v>
+        <v>481.6299034943981</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>608.9596471361873</v>
+        <v>608.9596471361874</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>608.9596471361872</v>
+        <v>608.9596471361874</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>608.9596471361873</v>
+        <v>608.9596471361874</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,40 +31758,40 @@
         <v>19.82911456949548</v>
       </c>
       <c r="I11" t="n">
-        <v>74.64537428931772</v>
+        <v>74.64537428931773</v>
       </c>
       <c r="J11" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K11" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L11" t="n">
-        <v>305.5469788771546</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M11" t="n">
         <v>339.9798866008471</v>
       </c>
       <c r="N11" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O11" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P11" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q11" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R11" t="n">
         <v>121.6248620115778</v>
       </c>
       <c r="S11" t="n">
-        <v>44.12117156132099</v>
+        <v>44.121171561321</v>
       </c>
       <c r="T11" t="n">
-        <v>8.475718201192871</v>
+        <v>8.475718201192873</v>
       </c>
       <c r="U11" t="n">
         <v>0.1548960493650324</v>
@@ -31837,43 +31837,43 @@
         <v>10.00517969334589</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J12" t="n">
-        <v>79.80531418618955</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K12" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L12" t="n">
-        <v>224.9347959668884</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M12" t="n">
         <v>262.4882974044469</v>
       </c>
       <c r="N12" t="n">
-        <v>269.4355815784369</v>
+        <v>215.6976458249671</v>
       </c>
       <c r="O12" t="n">
-        <v>246.4809186307604</v>
+        <v>246.4809186307605</v>
       </c>
       <c r="P12" t="n">
         <v>197.8226673428217</v>
       </c>
       <c r="Q12" t="n">
-        <v>132.2392142575562</v>
+        <v>132.2392142575563</v>
       </c>
       <c r="R12" t="n">
-        <v>64.32031050817642</v>
+        <v>64.32031050817643</v>
       </c>
       <c r="S12" t="n">
-        <v>19.24247774810164</v>
+        <v>19.24247774810165</v>
       </c>
       <c r="T12" t="n">
-        <v>4.175640389729732</v>
+        <v>4.175640389729733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0681551750227922</v>
+        <v>0.06815517502279221</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8685129407276028</v>
+        <v>0.868512940727603</v>
       </c>
       <c r="H13" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287239</v>
       </c>
       <c r="I13" t="n">
-        <v>26.11855279933555</v>
+        <v>26.11855279933556</v>
       </c>
       <c r="J13" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944153</v>
       </c>
       <c r="K13" t="n">
         <v>100.9054125681706</v>
@@ -31928,10 +31928,10 @@
         <v>129.1241875696293</v>
       </c>
       <c r="M13" t="n">
-        <v>136.1433512451459</v>
+        <v>136.143351245146</v>
       </c>
       <c r="N13" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O13" t="n">
         <v>122.7603563857525</v>
@@ -31940,19 +31940,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.72611542765409</v>
+        <v>72.72611542765411</v>
       </c>
       <c r="R13" t="n">
-        <v>39.05150004398838</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S13" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T13" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.04737343313059658</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32001,7 +32001,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K14" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L14" t="n">
         <v>305.5469788771547</v>
@@ -32010,16 +32010,16 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N14" t="n">
-        <v>345.4811166040771</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O14" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P14" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q14" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R14" t="n">
         <v>121.6248620115778</v>
@@ -32074,10 +32074,10 @@
         <v>10.00517969334589</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J15" t="n">
-        <v>79.80531418618946</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K15" t="n">
         <v>167.284605254276</v>
@@ -32101,7 +32101,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R15" t="n">
-        <v>64.32031050817643</v>
+        <v>10.58237475470651</v>
       </c>
       <c r="S15" t="n">
         <v>19.24247774810165</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8685129407276029</v>
+        <v>0.868512940727603</v>
       </c>
       <c r="H16" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287239</v>
       </c>
       <c r="I16" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J16" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944153</v>
       </c>
       <c r="K16" t="n">
         <v>100.9054125681706</v>
@@ -32168,7 +32168,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N16" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O16" t="n">
         <v>122.7603563857525</v>
@@ -32180,16 +32180,16 @@
         <v>72.72611542765411</v>
       </c>
       <c r="R16" t="n">
-        <v>39.05150004398839</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S16" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T16" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.04737343313059658</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32238,7 +32238,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K17" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L17" t="n">
         <v>305.5469788771547</v>
@@ -32247,16 +32247,16 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N17" t="n">
-        <v>345.4811166040772</v>
+        <v>345.4811166040771</v>
       </c>
       <c r="O17" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P17" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q17" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R17" t="n">
         <v>121.6248620115778</v>
@@ -32311,19 +32311,19 @@
         <v>10.00517969334589</v>
       </c>
       <c r="I18" t="n">
-        <v>35.66787492859458</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K18" t="n">
-        <v>167.284605254276</v>
+        <v>149.214544429401</v>
       </c>
       <c r="L18" t="n">
         <v>224.9347959668885</v>
       </c>
       <c r="M18" t="n">
-        <v>208.7503616509771</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N18" t="n">
         <v>269.4355815784369</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.868512940727603</v>
+        <v>0.8685129407276029</v>
       </c>
       <c r="H19" t="n">
-        <v>7.721869600287239</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I19" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J19" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K19" t="n">
         <v>100.9054125681706</v>
@@ -32405,7 +32405,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N19" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O19" t="n">
         <v>122.7603563857525</v>
@@ -32417,16 +32417,16 @@
         <v>72.72611542765411</v>
       </c>
       <c r="R19" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398839</v>
       </c>
       <c r="S19" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T19" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04737343313059658</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.936200617062906</v>
+        <v>1.936200617062905</v>
       </c>
       <c r="H20" t="n">
-        <v>19.82911456949549</v>
+        <v>19.82911456949548</v>
       </c>
       <c r="I20" t="n">
-        <v>74.64537428931774</v>
+        <v>74.64537428931773</v>
       </c>
       <c r="J20" t="n">
         <v>164.3326071224429</v>
@@ -32481,7 +32481,7 @@
         <v>305.5469788771547</v>
       </c>
       <c r="M20" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N20" t="n">
         <v>345.4811166040772</v>
@@ -32490,19 +32490,19 @@
         <v>326.2280217181579</v>
       </c>
       <c r="P20" t="n">
-        <v>278.4280689844174</v>
+        <v>278.4280689844173</v>
       </c>
       <c r="Q20" t="n">
         <v>209.087884385852</v>
       </c>
       <c r="R20" t="n">
-        <v>121.6248620115779</v>
+        <v>121.6248620115778</v>
       </c>
       <c r="S20" t="n">
-        <v>44.12117156132101</v>
+        <v>44.121171561321</v>
       </c>
       <c r="T20" t="n">
-        <v>8.475718201192874</v>
+        <v>8.475718201192873</v>
       </c>
       <c r="U20" t="n">
         <v>0.1548960493650324</v>
@@ -32545,19 +32545,19 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H21" t="n">
-        <v>10.0051796933459</v>
+        <v>10.00517969334589</v>
       </c>
       <c r="I21" t="n">
-        <v>35.66787492859459</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J21" t="n">
-        <v>97.87537501106446</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K21" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L21" t="n">
-        <v>224.9347959668885</v>
+        <v>171.1968602134187</v>
       </c>
       <c r="M21" t="n">
         <v>262.4882974044469</v>
@@ -32569,13 +32569,13 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P21" t="n">
-        <v>197.8226673428218</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q21" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R21" t="n">
-        <v>10.58237475470628</v>
+        <v>64.32031050817643</v>
       </c>
       <c r="S21" t="n">
         <v>19.24247774810165</v>
@@ -32584,7 +32584,7 @@
         <v>4.175640389729733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06815517502279222</v>
+        <v>0.06815517502279221</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8685129407276031</v>
+        <v>0.868512940727603</v>
       </c>
       <c r="H22" t="n">
-        <v>7.721869600287241</v>
+        <v>7.721869600287239</v>
       </c>
       <c r="I22" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J22" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944153</v>
       </c>
       <c r="K22" t="n">
         <v>100.9054125681706</v>
@@ -32651,7 +32651,7 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.72611542765412</v>
+        <v>72.72611542765411</v>
       </c>
       <c r="R22" t="n">
         <v>39.0515000439884</v>
@@ -32663,7 +32663,7 @@
         <v>3.710918928563394</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04737343313059659</v>
+        <v>0.04737343313059658</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32712,7 +32712,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K23" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L23" t="n">
         <v>305.5469788771547</v>
@@ -32721,16 +32721,16 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N23" t="n">
-        <v>345.4811166040772</v>
+        <v>345.4811166040771</v>
       </c>
       <c r="O23" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P23" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q23" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R23" t="n">
         <v>121.6248620115778</v>
@@ -32785,10 +32785,10 @@
         <v>10.00517969334589</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J24" t="n">
-        <v>79.80531418618924</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K24" t="n">
         <v>167.284605254276</v>
@@ -32806,7 +32806,7 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P24" t="n">
-        <v>197.8226673428217</v>
+        <v>144.0847315893523</v>
       </c>
       <c r="Q24" t="n">
         <v>132.2392142575563</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.868512940727603</v>
+        <v>0.8685129407276029</v>
       </c>
       <c r="H25" t="n">
-        <v>7.721869600287239</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I25" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J25" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K25" t="n">
         <v>100.9054125681706</v>
@@ -32879,7 +32879,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N25" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O25" t="n">
         <v>122.7603563857525</v>
@@ -32891,16 +32891,16 @@
         <v>72.72611542765411</v>
       </c>
       <c r="R25" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398839</v>
       </c>
       <c r="S25" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T25" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04737343313059658</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32949,7 +32949,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K26" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L26" t="n">
         <v>305.5469788771547</v>
@@ -32958,16 +32958,16 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N26" t="n">
-        <v>345.4811166040772</v>
+        <v>345.4811166040771</v>
       </c>
       <c r="O26" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P26" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R26" t="n">
         <v>121.6248620115778</v>
@@ -33025,10 +33025,10 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J27" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K27" t="n">
-        <v>113.5466695008062</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L27" t="n">
         <v>224.9347959668885</v>
@@ -33040,7 +33040,7 @@
         <v>269.4355815784369</v>
       </c>
       <c r="O27" t="n">
-        <v>246.4809186307605</v>
+        <v>192.7429828772911</v>
       </c>
       <c r="P27" t="n">
         <v>197.8226673428217</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.868512940727603</v>
+        <v>0.8685129407276029</v>
       </c>
       <c r="H28" t="n">
-        <v>7.721869600287239</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I28" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J28" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K28" t="n">
         <v>100.9054125681706</v>
@@ -33116,7 +33116,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N28" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O28" t="n">
         <v>122.7603563857525</v>
@@ -33128,16 +33128,16 @@
         <v>72.72611542765411</v>
       </c>
       <c r="R28" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398839</v>
       </c>
       <c r="S28" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T28" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04737343313059658</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33186,7 +33186,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K29" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L29" t="n">
         <v>305.5469788771547</v>
@@ -33195,16 +33195,16 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N29" t="n">
-        <v>345.4811166040772</v>
+        <v>345.4811166040771</v>
       </c>
       <c r="O29" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P29" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R29" t="n">
         <v>121.6248620115778</v>
@@ -33262,10 +33262,10 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J30" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K30" t="n">
-        <v>167.284605254276</v>
+        <v>113.5466695008064</v>
       </c>
       <c r="L30" t="n">
         <v>224.9347959668885</v>
@@ -33286,7 +33286,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R30" t="n">
-        <v>10.58237475470651</v>
+        <v>64.32031050817643</v>
       </c>
       <c r="S30" t="n">
         <v>19.24247774810165</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.868512940727603</v>
+        <v>0.8685129407276029</v>
       </c>
       <c r="H31" t="n">
-        <v>7.721869600287239</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I31" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J31" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K31" t="n">
         <v>100.9054125681706</v>
@@ -33353,7 +33353,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N31" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O31" t="n">
         <v>122.7603563857525</v>
@@ -33365,16 +33365,16 @@
         <v>72.72611542765411</v>
       </c>
       <c r="R31" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398839</v>
       </c>
       <c r="S31" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T31" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04737343313059658</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33423,7 +33423,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K32" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L32" t="n">
         <v>305.5469788771547</v>
@@ -33432,16 +33432,16 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N32" t="n">
-        <v>345.4811166040772</v>
+        <v>345.4811166040771</v>
       </c>
       <c r="O32" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P32" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R32" t="n">
         <v>121.6248620115778</v>
@@ -33499,10 +33499,10 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J33" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K33" t="n">
-        <v>167.284605254276</v>
+        <v>113.5466695008064</v>
       </c>
       <c r="L33" t="n">
         <v>224.9347959668885</v>
@@ -33517,7 +33517,7 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P33" t="n">
-        <v>144.0847315893518</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q33" t="n">
         <v>132.2392142575563</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.868512940727603</v>
+        <v>0.8685129407276029</v>
       </c>
       <c r="H34" t="n">
-        <v>7.721869600287239</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I34" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J34" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K34" t="n">
         <v>100.9054125681706</v>
@@ -33590,7 +33590,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N34" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O34" t="n">
         <v>122.7603563857525</v>
@@ -33602,16 +33602,16 @@
         <v>72.72611542765411</v>
       </c>
       <c r="R34" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398839</v>
       </c>
       <c r="S34" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T34" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04737343313059658</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33660,7 +33660,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K35" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L35" t="n">
         <v>305.5469788771547</v>
@@ -33669,16 +33669,16 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N35" t="n">
-        <v>345.4811166040772</v>
+        <v>345.4811166040771</v>
       </c>
       <c r="O35" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P35" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q35" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R35" t="n">
         <v>121.6248620115778</v>
@@ -33736,7 +33736,7 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J36" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K36" t="n">
         <v>167.284605254276</v>
@@ -33745,10 +33745,10 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M36" t="n">
-        <v>262.4882974044469</v>
+        <v>208.7503616509773</v>
       </c>
       <c r="N36" t="n">
-        <v>215.6976458249671</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O36" t="n">
         <v>246.4809186307605</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.868512940727603</v>
+        <v>0.8685129407276029</v>
       </c>
       <c r="H37" t="n">
-        <v>7.721869600287239</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I37" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J37" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K37" t="n">
         <v>100.9054125681706</v>
@@ -33827,7 +33827,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N37" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O37" t="n">
         <v>122.7603563857525</v>
@@ -33839,16 +33839,16 @@
         <v>72.72611542765411</v>
       </c>
       <c r="R37" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398839</v>
       </c>
       <c r="S37" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T37" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04737343313059658</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33897,7 +33897,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K38" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L38" t="n">
         <v>305.5469788771547</v>
@@ -33906,16 +33906,16 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N38" t="n">
-        <v>345.4811166040772</v>
+        <v>345.4811166040771</v>
       </c>
       <c r="O38" t="n">
-        <v>326.2280217181579</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P38" t="n">
         <v>278.4280689844173</v>
       </c>
       <c r="Q38" t="n">
-        <v>209.087884385852</v>
+        <v>209.0878843858519</v>
       </c>
       <c r="R38" t="n">
         <v>121.6248620115778</v>
@@ -33970,19 +33970,19 @@
         <v>10.00517969334589</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J39" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K39" t="n">
-        <v>149.2145444294008</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L39" t="n">
         <v>224.9347959668885</v>
       </c>
       <c r="M39" t="n">
-        <v>262.4882974044469</v>
+        <v>208.7503616509773</v>
       </c>
       <c r="N39" t="n">
         <v>269.4355815784369</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.868512940727603</v>
+        <v>0.8685129407276029</v>
       </c>
       <c r="H40" t="n">
-        <v>7.721869600287239</v>
+        <v>7.721869600287238</v>
       </c>
       <c r="I40" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J40" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K40" t="n">
         <v>100.9054125681706</v>
@@ -34064,7 +34064,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N40" t="n">
-        <v>132.9061666478887</v>
+        <v>132.9061666478886</v>
       </c>
       <c r="O40" t="n">
         <v>122.7603563857525</v>
@@ -34076,16 +34076,16 @@
         <v>72.72611542765411</v>
       </c>
       <c r="R40" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398839</v>
       </c>
       <c r="S40" t="n">
-        <v>15.13581188522559</v>
+        <v>15.13581188522558</v>
       </c>
       <c r="T40" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563393</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04737343313059658</v>
+        <v>0.04737343313059657</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,10 +34207,10 @@
         <v>10.00517969334589</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J42" t="n">
-        <v>97.87537501106445</v>
+        <v>44.13743925759465</v>
       </c>
       <c r="K42" t="n">
         <v>167.284605254276</v>
@@ -34222,7 +34222,7 @@
         <v>262.4882974044469</v>
       </c>
       <c r="N42" t="n">
-        <v>251.3655207535617</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O42" t="n">
         <v>246.4809186307605</v>
@@ -34359,25 +34359,25 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.936200617062906</v>
+        <v>1.936200617062905</v>
       </c>
       <c r="H44" t="n">
-        <v>19.82911456949549</v>
+        <v>19.82911456949548</v>
       </c>
       <c r="I44" t="n">
-        <v>74.64537428931776</v>
+        <v>74.64537428931773</v>
       </c>
       <c r="J44" t="n">
-        <v>164.332607122443</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K44" t="n">
         <v>246.2919792427158</v>
       </c>
       <c r="L44" t="n">
-        <v>305.5469788771548</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M44" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N44" t="n">
         <v>345.4811166040772</v>
@@ -34386,19 +34386,19 @@
         <v>326.2280217181579</v>
       </c>
       <c r="P44" t="n">
-        <v>278.4280689844174</v>
+        <v>278.4280689844173</v>
       </c>
       <c r="Q44" t="n">
         <v>209.087884385852</v>
       </c>
       <c r="R44" t="n">
-        <v>121.6248620115779</v>
+        <v>121.6248620115784</v>
       </c>
       <c r="S44" t="n">
-        <v>44.12117156132101</v>
+        <v>44.121171561321</v>
       </c>
       <c r="T44" t="n">
-        <v>8.475718201192874</v>
+        <v>8.475718201192873</v>
       </c>
       <c r="U44" t="n">
         <v>0.1548960493650324</v>
@@ -34441,13 +34441,13 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H45" t="n">
-        <v>10.0051796933459</v>
+        <v>10.00517969334589</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J45" t="n">
-        <v>97.87537501106446</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K45" t="n">
         <v>167.284605254276</v>
@@ -34456,31 +34456,31 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M45" t="n">
-        <v>262.488297404447</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N45" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O45" t="n">
-        <v>246.4809186307606</v>
+        <v>246.4809186307605</v>
       </c>
       <c r="P45" t="n">
-        <v>179.7526065179463</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.2392142575563</v>
+        <v>78.50127850408649</v>
       </c>
       <c r="R45" t="n">
-        <v>64.32031050817645</v>
+        <v>64.32031050817643</v>
       </c>
       <c r="S45" t="n">
         <v>19.24247774810165</v>
       </c>
       <c r="T45" t="n">
-        <v>4.175640389729734</v>
+        <v>4.175640389729733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06815517502279222</v>
+        <v>0.06815517502279221</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8685129407276032</v>
+        <v>0.868512940727603</v>
       </c>
       <c r="H46" t="n">
-        <v>7.721869600287242</v>
+        <v>7.721869600287239</v>
       </c>
       <c r="I46" t="n">
-        <v>26.11855279933557</v>
+        <v>26.11855279933556</v>
       </c>
       <c r="J46" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944153</v>
       </c>
       <c r="K46" t="n">
         <v>100.9054125681706</v>
@@ -34544,10 +34544,10 @@
         <v>122.7603563857525</v>
       </c>
       <c r="P46" t="n">
-        <v>105.0426923949094</v>
+        <v>105.0426923949093</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.72611542765412</v>
+        <v>72.72611542765411</v>
       </c>
       <c r="R46" t="n">
         <v>39.0515000439884</v>
@@ -34556,10 +34556,10 @@
         <v>15.13581188522559</v>
       </c>
       <c r="T46" t="n">
-        <v>3.710918928563395</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0473734331305966</v>
+        <v>0.04737343313059658</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>74.23275281018631</v>
+        <v>74.23275281018633</v>
       </c>
       <c r="J11" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K11" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L11" t="n">
         <v>305.5469788771547</v>
       </c>
       <c r="M11" t="n">
-        <v>339.9798866008468</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N11" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O11" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P11" t="n">
-        <v>278.4280689844172</v>
+        <v>278.4280689844175</v>
       </c>
       <c r="Q11" t="n">
         <v>209.0878843858518</v>
       </c>
       <c r="R11" t="n">
-        <v>121.624862011578</v>
+        <v>121.6248620115775</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J12" t="n">
-        <v>79.80531418618955</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K12" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L12" t="n">
-        <v>224.9347959668884</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M12" t="n">
-        <v>262.4882974044468</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N12" t="n">
-        <v>269.4355815784369</v>
+        <v>215.6976458249671</v>
       </c>
       <c r="O12" t="n">
         <v>246.4809186307605</v>
@@ -35576,22 +35576,22 @@
         <v>551.5584115776708</v>
       </c>
       <c r="M13" t="n">
-        <v>434.3691977528567</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N13" t="n">
-        <v>579.6322304434893</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O13" t="n">
-        <v>122.7603563857524</v>
+        <v>346.8035102904034</v>
       </c>
       <c r="P13" t="n">
-        <v>105.0426923949094</v>
+        <v>456.0597570114162</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.72611542765389</v>
+        <v>242.6178072098078</v>
       </c>
       <c r="R13" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>74.23275281018633</v>
       </c>
       <c r="J14" t="n">
-        <v>164.3326071224428</v>
+        <v>164.3326071224433</v>
       </c>
       <c r="K14" t="n">
         <v>246.2919792427158</v>
       </c>
       <c r="L14" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771545</v>
       </c>
       <c r="M14" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008468</v>
       </c>
       <c r="N14" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O14" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P14" t="n">
-        <v>278.4280689844172</v>
+        <v>278.4280689844175</v>
       </c>
       <c r="Q14" t="n">
         <v>209.0878843858518</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J15" t="n">
-        <v>79.80531418618946</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K15" t="n">
         <v>167.284605254276</v>
@@ -35734,10 +35734,10 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M15" t="n">
-        <v>262.4882974044468</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N15" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O15" t="n">
         <v>246.4809186307605</v>
@@ -35749,7 +35749,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R15" t="n">
-        <v>64.32031050817636</v>
+        <v>10.58237475470651</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,25 +35810,25 @@
         <v>100.9054125681706</v>
       </c>
       <c r="L16" t="n">
-        <v>399.6300950394931</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M16" t="n">
-        <v>600.2684696097047</v>
+        <v>600.2684696097045</v>
       </c>
       <c r="N16" t="n">
-        <v>579.6322304434891</v>
+        <v>579.6322304434893</v>
       </c>
       <c r="O16" t="n">
-        <v>122.7603563857524</v>
+        <v>321.8491044640823</v>
       </c>
       <c r="P16" t="n">
-        <v>456.0597570114162</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q16" t="n">
         <v>72.72611542765389</v>
       </c>
       <c r="R16" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>74.23275281018633</v>
       </c>
       <c r="J17" t="n">
-        <v>164.3326071224433</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K17" t="n">
         <v>246.2919792427158</v>
       </c>
       <c r="L17" t="n">
-        <v>305.5469788771545</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M17" t="n">
-        <v>339.9798866008468</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N17" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O17" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P17" t="n">
         <v>278.4280689844175</v>
@@ -35907,7 +35907,7 @@
         <v>209.0878843858518</v>
       </c>
       <c r="R17" t="n">
-        <v>121.624862011578</v>
+        <v>121.6248620115775</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>35.66787492859458</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>97.87537501106445</v>
       </c>
       <c r="K18" t="n">
-        <v>167.284605254276</v>
+        <v>149.214544429401</v>
       </c>
       <c r="L18" t="n">
         <v>224.9347959668885</v>
       </c>
       <c r="M18" t="n">
-        <v>208.7503616509771</v>
+        <v>262.4882974044468</v>
       </c>
       <c r="N18" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O18" t="n">
         <v>246.4809186307605</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944152</v>
       </c>
       <c r="K19" t="n">
         <v>100.9054125681706</v>
@@ -36050,22 +36050,22 @@
         <v>551.5584115776708</v>
       </c>
       <c r="M19" t="n">
-        <v>136.1433512451459</v>
+        <v>600.2684696097045</v>
       </c>
       <c r="N19" t="n">
-        <v>298.0290079364227</v>
+        <v>579.6322304434893</v>
       </c>
       <c r="O19" t="n">
-        <v>546.6686889370469</v>
+        <v>321.8491044640823</v>
       </c>
       <c r="P19" t="n">
-        <v>456.0597570114162</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q19" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765389</v>
       </c>
       <c r="R19" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>74.23275281018634</v>
+        <v>74.23275281018633</v>
       </c>
       <c r="J20" t="n">
-        <v>164.3326071224431</v>
+        <v>164.3326071224433</v>
       </c>
       <c r="K20" t="n">
-        <v>246.2919792427158</v>
+        <v>246.291979242716</v>
       </c>
       <c r="L20" t="n">
         <v>305.5469788771547</v>
@@ -36132,7 +36132,7 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N20" t="n">
-        <v>345.4811166040774</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O20" t="n">
         <v>326.2280217181578</v>
@@ -36144,7 +36144,7 @@
         <v>209.0878843858518</v>
       </c>
       <c r="R20" t="n">
-        <v>121.624862011578</v>
+        <v>121.6248620115775</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J21" t="n">
-        <v>97.87537501106448</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K21" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L21" t="n">
-        <v>224.9347959668885</v>
+        <v>171.1968602134187</v>
       </c>
       <c r="M21" t="n">
         <v>262.4882974044469</v>
@@ -36217,13 +36217,13 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P21" t="n">
-        <v>197.8226673428219</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q21" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R21" t="n">
-        <v>10.58237475470628</v>
+        <v>64.32031050817636</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>61.40386490944154</v>
+        <v>148.8580923485222</v>
       </c>
       <c r="K22" t="n">
-        <v>100.9054125681706</v>
+        <v>378.4392050642672</v>
       </c>
       <c r="L22" t="n">
-        <v>269.955189070604</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M22" t="n">
-        <v>136.143351245146</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N22" t="n">
-        <v>579.6322304434893</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O22" t="n">
-        <v>546.6686889370469</v>
+        <v>346.8035102904034</v>
       </c>
       <c r="P22" t="n">
         <v>456.0597570114162</v>
@@ -36357,22 +36357,22 @@
         <v>74.23275281018633</v>
       </c>
       <c r="J23" t="n">
-        <v>164.3326071224429</v>
+        <v>164.3326071224428</v>
       </c>
       <c r="K23" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427156</v>
       </c>
       <c r="L23" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M23" t="n">
-        <v>339.9798866008471</v>
+        <v>339.979886600847</v>
       </c>
       <c r="N23" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O23" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P23" t="n">
         <v>278.4280689844175</v>
@@ -36381,7 +36381,7 @@
         <v>209.0878843858518</v>
       </c>
       <c r="R23" t="n">
-        <v>121.6248620115775</v>
+        <v>121.624862011578</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J24" t="n">
-        <v>79.80531418618924</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K24" t="n">
         <v>167.284605254276</v>
@@ -36445,16 +36445,16 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M24" t="n">
-        <v>262.4882974044469</v>
+        <v>262.4882974044468</v>
       </c>
       <c r="N24" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784368</v>
       </c>
       <c r="O24" t="n">
         <v>246.4809186307605</v>
       </c>
       <c r="P24" t="n">
-        <v>197.8226673428217</v>
+        <v>144.0847315893523</v>
       </c>
       <c r="Q24" t="n">
         <v>132.2392142575563</v>
@@ -36524,22 +36524,22 @@
         <v>551.5584115776708</v>
       </c>
       <c r="M25" t="n">
-        <v>136.1433512451461</v>
+        <v>287.2952372150096</v>
       </c>
       <c r="N25" t="n">
-        <v>132.9061666478888</v>
+        <v>132.9061666478885</v>
       </c>
       <c r="O25" t="n">
         <v>546.6686889370469</v>
       </c>
       <c r="P25" t="n">
-        <v>426.0862701469266</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.72611542765389</v>
+        <v>242.6178072098078</v>
       </c>
       <c r="R25" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K26" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L26" t="n">
         <v>305.5469788771547</v>
       </c>
       <c r="M26" t="n">
-        <v>339.9798866008468</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N26" t="n">
-        <v>345.4811166040772</v>
+        <v>345.481116604077</v>
       </c>
       <c r="O26" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P26" t="n">
         <v>278.4280689844175</v>
@@ -36618,7 +36618,7 @@
         <v>209.0878843858518</v>
       </c>
       <c r="R26" t="n">
-        <v>121.624862011578</v>
+        <v>121.6248620115775</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J27" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K27" t="n">
-        <v>113.5466695008062</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L27" t="n">
         <v>224.9347959668885</v>
       </c>
       <c r="M27" t="n">
-        <v>262.4882974044469</v>
+        <v>262.4882974044468</v>
       </c>
       <c r="N27" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784368</v>
       </c>
       <c r="O27" t="n">
-        <v>246.4809186307605</v>
+        <v>192.7429828772911</v>
       </c>
       <c r="P27" t="n">
         <v>197.8226673428217</v>
@@ -36758,25 +36758,25 @@
         <v>378.4392050642672</v>
       </c>
       <c r="L28" t="n">
-        <v>129.1241875696293</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M28" t="n">
-        <v>600.2684696097048</v>
+        <v>600.2684696097047</v>
       </c>
       <c r="N28" t="n">
-        <v>579.6322304434893</v>
+        <v>243.841266804488</v>
       </c>
       <c r="O28" t="n">
         <v>122.7603563857524</v>
       </c>
       <c r="P28" t="n">
-        <v>361.5776445461033</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.72611542765389</v>
+        <v>242.6178072098078</v>
       </c>
       <c r="R28" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K29" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L29" t="n">
-        <v>305.5469788771546</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M29" t="n">
         <v>339.9798866008468</v>
@@ -36910,19 +36910,19 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J30" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K30" t="n">
-        <v>167.284605254276</v>
+        <v>113.5466695008064</v>
       </c>
       <c r="L30" t="n">
         <v>224.9347959668885</v>
       </c>
       <c r="M30" t="n">
-        <v>262.4882974044469</v>
+        <v>262.4882974044468</v>
       </c>
       <c r="N30" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O30" t="n">
         <v>246.4809186307605</v>
@@ -36934,7 +36934,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R30" t="n">
-        <v>10.58237475470651</v>
+        <v>64.32031050817636</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>61.40386490944153</v>
+        <v>148.8580923485222</v>
       </c>
       <c r="K31" t="n">
-        <v>100.9054125681706</v>
+        <v>378.4392050642672</v>
       </c>
       <c r="L31" t="n">
-        <v>129.1241875696293</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M31" t="n">
-        <v>600.2684696097047</v>
+        <v>360.1865051497973</v>
       </c>
       <c r="N31" t="n">
-        <v>426.2298053620593</v>
+        <v>132.9061666478885</v>
       </c>
       <c r="O31" t="n">
-        <v>546.6686889370469</v>
+        <v>122.7603563857524</v>
       </c>
       <c r="P31" t="n">
         <v>456.0597570114162</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.72611542765389</v>
+        <v>242.6178072098078</v>
       </c>
       <c r="R31" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>164.3326071224428</v>
       </c>
       <c r="K32" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427156</v>
       </c>
       <c r="L32" t="n">
         <v>305.5469788771546</v>
       </c>
       <c r="M32" t="n">
-        <v>339.9798866008473</v>
+        <v>339.979886600847</v>
       </c>
       <c r="N32" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O32" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P32" t="n">
-        <v>278.4280689844172</v>
+        <v>278.4280689844175</v>
       </c>
       <c r="Q32" t="n">
         <v>209.0878843858518</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>35.66787492859459</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J33" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K33" t="n">
-        <v>167.284605254276</v>
+        <v>113.5466695008064</v>
       </c>
       <c r="L33" t="n">
         <v>224.9347959668885</v>
       </c>
       <c r="M33" t="n">
-        <v>262.4882974044469</v>
+        <v>262.4882974044468</v>
       </c>
       <c r="N33" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O33" t="n">
         <v>246.4809186307605</v>
       </c>
       <c r="P33" t="n">
-        <v>144.0847315893518</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q33" t="n">
         <v>132.2392142575563</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>61.40386490944152</v>
+        <v>148.8580923485222</v>
       </c>
       <c r="K34" t="n">
-        <v>100.9054125681706</v>
+        <v>378.4392050642672</v>
       </c>
       <c r="L34" t="n">
-        <v>269.9551890706036</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M34" t="n">
-        <v>136.1433512451459</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N34" t="n">
-        <v>579.6322304434893</v>
+        <v>132.9061666478885</v>
       </c>
       <c r="O34" t="n">
         <v>546.6686889370469</v>
       </c>
       <c r="P34" t="n">
-        <v>456.0597570114162</v>
+        <v>426.0862701469268</v>
       </c>
       <c r="Q34" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765389</v>
       </c>
       <c r="R34" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37305,22 +37305,22 @@
         <v>74.23275281018633</v>
       </c>
       <c r="J35" t="n">
-        <v>164.3326071224433</v>
+        <v>164.3326071224428</v>
       </c>
       <c r="K35" t="n">
-        <v>246.291979242716</v>
+        <v>246.2919792427156</v>
       </c>
       <c r="L35" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M35" t="n">
-        <v>339.9798866008471</v>
+        <v>339.979886600847</v>
       </c>
       <c r="N35" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O35" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P35" t="n">
         <v>278.4280689844175</v>
@@ -37329,7 +37329,7 @@
         <v>209.0878843858518</v>
       </c>
       <c r="R35" t="n">
-        <v>121.6248620115775</v>
+        <v>121.624862011578</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>35.66787492859458</v>
       </c>
       <c r="J36" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106442</v>
       </c>
       <c r="K36" t="n">
         <v>167.284605254276</v>
@@ -37393,10 +37393,10 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M36" t="n">
-        <v>262.4882974044469</v>
+        <v>208.7503616509773</v>
       </c>
       <c r="N36" t="n">
-        <v>215.6976458249671</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O36" t="n">
         <v>246.4809186307605</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>61.40386490944153</v>
+        <v>148.8580923485222</v>
       </c>
       <c r="K37" t="n">
         <v>378.4392050642672</v>
       </c>
       <c r="L37" t="n">
-        <v>129.1241875696293</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M37" t="n">
-        <v>446.1666240456246</v>
+        <v>360.1865051497973</v>
       </c>
       <c r="N37" t="n">
-        <v>132.9061666478888</v>
+        <v>132.9061666478885</v>
       </c>
       <c r="O37" t="n">
-        <v>546.6686889370469</v>
+        <v>122.7603563857524</v>
       </c>
       <c r="P37" t="n">
         <v>456.0597570114162</v>
@@ -37487,7 +37487,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R37" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>164.3326071224429</v>
       </c>
       <c r="K38" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427157</v>
       </c>
       <c r="L38" t="n">
         <v>305.5469788771547</v>
@@ -37560,13 +37560,13 @@
         <v>326.2280217181578</v>
       </c>
       <c r="P38" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q38" t="n">
         <v>209.0878843858518</v>
       </c>
       <c r="R38" t="n">
-        <v>121.6248620115775</v>
+        <v>121.624862011578</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J39" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106443</v>
       </c>
       <c r="K39" t="n">
-        <v>149.2145444294008</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L39" t="n">
         <v>224.9347959668885</v>
       </c>
       <c r="M39" t="n">
-        <v>262.4882974044469</v>
+        <v>208.7503616509773</v>
       </c>
       <c r="N39" t="n">
-        <v>269.435581578437</v>
+        <v>269.4355815784369</v>
       </c>
       <c r="O39" t="n">
         <v>246.4809186307605</v>
@@ -37709,22 +37709,22 @@
         <v>551.5584115776708</v>
       </c>
       <c r="M40" t="n">
-        <v>600.2684696097047</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N40" t="n">
-        <v>243.841266804488</v>
+        <v>132.9061666478885</v>
       </c>
       <c r="O40" t="n">
-        <v>122.7603563857524</v>
+        <v>346.8035102904028</v>
       </c>
       <c r="P40" t="n">
-        <v>105.0426923949094</v>
+        <v>456.0597570114162</v>
       </c>
       <c r="Q40" t="n">
         <v>242.6178072098078</v>
       </c>
       <c r="R40" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230655</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>74.23275281018633</v>
       </c>
       <c r="J41" t="n">
-        <v>164.3326071224429</v>
+        <v>164.3326071224433</v>
       </c>
       <c r="K41" t="n">
         <v>246.2919792427158</v>
       </c>
       <c r="L41" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771545</v>
       </c>
       <c r="M41" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008468</v>
       </c>
       <c r="N41" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O41" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P41" t="n">
         <v>278.4280689844175</v>
@@ -37803,7 +37803,7 @@
         <v>209.0878843858518</v>
       </c>
       <c r="R41" t="n">
-        <v>121.6248620115775</v>
+        <v>121.624862011578</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J42" t="n">
-        <v>97.87537501106445</v>
+        <v>44.13743925759465</v>
       </c>
       <c r="K42" t="n">
         <v>167.284605254276</v>
@@ -37867,10 +37867,10 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M42" t="n">
-        <v>262.4882974044471</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N42" t="n">
-        <v>251.3655207535617</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O42" t="n">
         <v>246.4809186307605</v>
@@ -37940,25 +37940,25 @@
         <v>61.40386490944153</v>
       </c>
       <c r="K43" t="n">
-        <v>378.4392050642672</v>
+        <v>100.9054125681706</v>
       </c>
       <c r="L43" t="n">
-        <v>551.5584115776708</v>
+        <v>326.738827104706</v>
       </c>
       <c r="M43" t="n">
         <v>600.2684696097047</v>
       </c>
       <c r="N43" t="n">
-        <v>132.9061666478888</v>
+        <v>579.6322304434893</v>
       </c>
       <c r="O43" t="n">
-        <v>122.7603563857524</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P43" t="n">
-        <v>303.4320199905892</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q43" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765389</v>
       </c>
       <c r="R43" t="n">
         <v>17.84785696230656</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>74.23275281018635</v>
+        <v>74.23275281018633</v>
       </c>
       <c r="J44" t="n">
-        <v>164.332607122443</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K44" t="n">
         <v>246.2919792427158</v>
       </c>
       <c r="L44" t="n">
-        <v>305.546978877155</v>
+        <v>305.5469788771546</v>
       </c>
       <c r="M44" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008468</v>
       </c>
       <c r="N44" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O44" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P44" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q44" t="n">
         <v>209.0878843858518</v>
       </c>
       <c r="R44" t="n">
-        <v>121.624862011578</v>
+        <v>121.6248620115784</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>35.66787492859458</v>
       </c>
       <c r="J45" t="n">
-        <v>97.87537501106446</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K45" t="n">
-        <v>167.2846052542761</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L45" t="n">
         <v>224.9347959668885</v>
@@ -38113,10 +38113,10 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P45" t="n">
-        <v>179.7526065179463</v>
+        <v>197.8226673428217</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.2392142575563</v>
+        <v>78.50127850408649</v>
       </c>
       <c r="R45" t="n">
         <v>64.32031050817636</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>61.40386490944154</v>
+        <v>61.40386490944153</v>
       </c>
       <c r="K46" t="n">
         <v>100.9054125681706</v>
       </c>
       <c r="L46" t="n">
-        <v>129.1241875696293</v>
+        <v>326.738827104706</v>
       </c>
       <c r="M46" t="n">
         <v>600.2684696097047</v>
       </c>
       <c r="N46" t="n">
-        <v>579.6322304434892</v>
+        <v>579.6322304434893</v>
       </c>
       <c r="O46" t="n">
-        <v>393.2662638556169</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P46" t="n">
-        <v>456.0597570114162</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.72611542765435</v>
+        <v>72.72611542765389</v>
       </c>
       <c r="R46" t="n">
-        <v>17.84785696230657</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
